--- a/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
+++ b/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>promptCOT01</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.169</v>
+        <v>0.297</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="H2" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.048</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="3">
@@ -553,12 +553,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,33 +567,33 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.358</v>
+        <v>0.369</v>
       </c>
       <c r="E4" t="n">
-        <v>0.429</v>
+        <v>0.463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.403</v>
+        <v>0.431</v>
       </c>
       <c r="G4" t="n">
-        <v>0.429</v>
+        <v>0.463</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>0.429</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,33 +602,33 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.38</v>
+        <v>0.358</v>
       </c>
       <c r="E5" t="n">
-        <v>0.452</v>
+        <v>0.429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.445</v>
+        <v>0.403</v>
       </c>
       <c r="G5" t="n">
-        <v>0.452</v>
+        <v>0.429</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.452</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,33 +637,33 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.164</v>
+        <v>0.38</v>
       </c>
       <c r="E6" t="n">
-        <v>0.264</v>
+        <v>0.452</v>
       </c>
       <c r="F6" t="n">
-        <v>0.214</v>
+        <v>0.445</v>
       </c>
       <c r="G6" t="n">
-        <v>0.264</v>
+        <v>0.452</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.262</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,33 +672,33 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="E7" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="F7" t="n">
-        <v>0.382</v>
+        <v>0.392</v>
       </c>
       <c r="G7" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.421</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,33 +707,33 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.333</v>
+        <v>0.361</v>
       </c>
       <c r="E8" t="n">
-        <v>0.413</v>
+        <v>0.455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.374</v>
+        <v>0.415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.413</v>
+        <v>0.455</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0.413</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.33</v>
+        <v>0.164</v>
       </c>
       <c r="E9" t="n">
-        <v>0.434</v>
+        <v>0.264</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4</v>
+        <v>0.214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.434</v>
+        <v>0.264</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.421</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +768,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,28 +777,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.356</v>
+        <v>0.328</v>
       </c>
       <c r="E10" t="n">
-        <v>0.488</v>
+        <v>0.452</v>
       </c>
       <c r="F10" t="n">
-        <v>0.423</v>
+        <v>0.401</v>
       </c>
       <c r="G10" t="n">
-        <v>0.488</v>
+        <v>0.452</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.484</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -812,33 +812,33 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.353</v>
+        <v>0.269</v>
       </c>
       <c r="E11" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="F11" t="n">
-        <v>0.421</v>
+        <v>0.319</v>
       </c>
       <c r="G11" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>0.476</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -847,33 +847,33 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.34</v>
+        <v>0.319</v>
       </c>
       <c r="E12" t="n">
-        <v>0.44</v>
+        <v>0.427</v>
       </c>
       <c r="F12" t="n">
-        <v>0.416</v>
+        <v>0.382</v>
       </c>
       <c r="G12" t="n">
-        <v>0.44</v>
+        <v>0.427</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0.437</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -882,33 +882,33 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.397</v>
+        <v>0.343</v>
       </c>
       <c r="E13" t="n">
-        <v>0.452</v>
+        <v>0.468</v>
       </c>
       <c r="F13" t="n">
-        <v>0.432</v>
+        <v>0.41</v>
       </c>
       <c r="G13" t="n">
-        <v>0.452</v>
+        <v>0.468</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.452</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>promptCOT02</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -917,33 +917,33 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.281</v>
+        <v>0.333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="F14" t="n">
-        <v>0.327</v>
+        <v>0.374</v>
       </c>
       <c r="G14" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -952,33 +952,33 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.291</v>
+        <v>0.33</v>
       </c>
       <c r="E15" t="n">
-        <v>0.389</v>
+        <v>0.434</v>
       </c>
       <c r="F15" t="n">
-        <v>0.374</v>
+        <v>0.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.389</v>
+        <v>0.434</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>0.389</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>promptCOT01</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -987,33 +987,33 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.277</v>
+        <v>0.356</v>
       </c>
       <c r="E16" t="n">
-        <v>0.365</v>
+        <v>0.488</v>
       </c>
       <c r="F16" t="n">
-        <v>0.321</v>
+        <v>0.423</v>
       </c>
       <c r="G16" t="n">
-        <v>0.365</v>
+        <v>0.488</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.365</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1022,33 +1022,33 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.339</v>
+        <v>0.353</v>
       </c>
       <c r="E17" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="F17" t="n">
-        <v>0.403</v>
+        <v>0.421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.429</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1057,33 +1057,33 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.305</v>
+        <v>0.34</v>
       </c>
       <c r="E18" t="n">
-        <v>0.429</v>
+        <v>0.44</v>
       </c>
       <c r="F18" t="n">
-        <v>0.384</v>
+        <v>0.416</v>
       </c>
       <c r="G18" t="n">
-        <v>0.429</v>
+        <v>0.44</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.429</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1092,33 +1092,33 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.211</v>
+        <v>0.313</v>
       </c>
       <c r="E19" t="n">
-        <v>0.328</v>
+        <v>0.421</v>
       </c>
       <c r="F19" t="n">
-        <v>0.278</v>
+        <v>0.379</v>
       </c>
       <c r="G19" t="n">
-        <v>0.328</v>
+        <v>0.421</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.325</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.273</v>
+        <v>0.397</v>
       </c>
       <c r="E20" t="n">
-        <v>0.357</v>
+        <v>0.452</v>
       </c>
       <c r="F20" t="n">
-        <v>0.353</v>
+        <v>0.432</v>
       </c>
       <c r="G20" t="n">
-        <v>0.357</v>
+        <v>0.452</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.357</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="21">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1162,33 +1162,33 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.346</v>
+        <v>0.312</v>
       </c>
       <c r="E21" t="n">
-        <v>0.471</v>
+        <v>0.44</v>
       </c>
       <c r="F21" t="n">
-        <v>0.425</v>
+        <v>0.37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.471</v>
+        <v>0.44</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.452</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1197,33 +1197,33 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.346</v>
+        <v>0.291</v>
       </c>
       <c r="E22" t="n">
-        <v>0.444</v>
+        <v>0.389</v>
       </c>
       <c r="F22" t="n">
-        <v>0.411</v>
+        <v>0.374</v>
       </c>
       <c r="G22" t="n">
-        <v>0.444</v>
+        <v>0.389</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.444</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>promptCOT01</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1232,33 +1232,33 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.26</v>
+        <v>0.339</v>
       </c>
       <c r="E23" t="n">
-        <v>0.349</v>
+        <v>0.45</v>
       </c>
       <c r="F23" t="n">
-        <v>0.296</v>
+        <v>0.403</v>
       </c>
       <c r="G23" t="n">
-        <v>0.349</v>
+        <v>0.45</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>0.349</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>promptCOT02</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1267,33 +1267,33 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.241</v>
+        <v>0.255</v>
       </c>
       <c r="E24" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="F24" t="n">
-        <v>0.297</v>
+        <v>0.31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1302,33 +1302,33 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.255</v>
+        <v>0.305</v>
       </c>
       <c r="E25" t="n">
-        <v>0.357</v>
+        <v>0.429</v>
       </c>
       <c r="F25" t="n">
-        <v>0.322</v>
+        <v>0.384</v>
       </c>
       <c r="G25" t="n">
-        <v>0.357</v>
+        <v>0.429</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.357</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,33 +1337,33 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.399</v>
+        <v>0.211</v>
       </c>
       <c r="E26" t="n">
-        <v>0.488</v>
+        <v>0.328</v>
       </c>
       <c r="F26" t="n">
-        <v>0.468</v>
+        <v>0.278</v>
       </c>
       <c r="G26" t="n">
-        <v>0.488</v>
+        <v>0.328</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.476</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1372,28 +1372,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.299</v>
+        <v>0.277</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4</v>
+        <v>0.365</v>
       </c>
       <c r="F27" t="n">
-        <v>0.339</v>
+        <v>0.321</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4</v>
+        <v>0.365</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.397</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1407,33 +1407,33 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.267</v>
+        <v>0.273</v>
       </c>
       <c r="E28" t="n">
-        <v>0.365</v>
+        <v>0.357</v>
       </c>
       <c r="F28" t="n">
-        <v>0.359</v>
+        <v>0.353</v>
       </c>
       <c r="G28" t="n">
-        <v>0.365</v>
+        <v>0.357</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.365</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1442,33 +1442,33 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.301</v>
+        <v>0.394</v>
       </c>
       <c r="E29" t="n">
-        <v>0.416</v>
+        <v>0.46</v>
       </c>
       <c r="F29" t="n">
-        <v>0.356</v>
+        <v>0.442</v>
       </c>
       <c r="G29" t="n">
-        <v>0.416</v>
+        <v>0.46</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.413</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1477,33 +1477,33 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.289</v>
+        <v>0.346</v>
       </c>
       <c r="E30" t="n">
-        <v>0.427</v>
+        <v>0.471</v>
       </c>
       <c r="F30" t="n">
-        <v>0.36</v>
+        <v>0.425</v>
       </c>
       <c r="G30" t="n">
-        <v>0.427</v>
+        <v>0.471</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>0.421</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>promptCOT02</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1512,33 +1512,33 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.246</v>
+        <v>0.387</v>
       </c>
       <c r="E31" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
       </c>
       <c r="F31" t="n">
-        <v>0.303</v>
+        <v>0.443</v>
       </c>
       <c r="G31" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1547,33 +1547,33 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.359</v>
+        <v>0.281</v>
       </c>
       <c r="E32" t="n">
-        <v>0.416</v>
+        <v>0.357</v>
       </c>
       <c r="F32" t="n">
-        <v>0.405</v>
+        <v>0.327</v>
       </c>
       <c r="G32" t="n">
-        <v>0.416</v>
+        <v>0.357</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.413</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1582,33 +1582,33 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.299</v>
+        <v>0.358</v>
       </c>
       <c r="E33" t="n">
-        <v>0.405</v>
+        <v>0.448</v>
       </c>
       <c r="F33" t="n">
-        <v>0.384</v>
+        <v>0.422</v>
       </c>
       <c r="G33" t="n">
-        <v>0.405</v>
+        <v>0.448</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.405</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1617,33 +1617,33 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.128</v>
+        <v>0.246</v>
       </c>
       <c r="E34" t="n">
-        <v>0.248</v>
+        <v>0.349</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2</v>
+        <v>0.303</v>
       </c>
       <c r="G34" t="n">
-        <v>0.248</v>
+        <v>0.349</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.246</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1652,19 +1652,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.333</v>
+        <v>0.346</v>
       </c>
       <c r="E35" t="n">
-        <v>0.448</v>
+        <v>0.444</v>
       </c>
       <c r="F35" t="n">
-        <v>0.403</v>
+        <v>0.411</v>
       </c>
       <c r="G35" t="n">
-        <v>0.448</v>
+        <v>0.444</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.444</v>
@@ -1673,12 +1673,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1687,33 +1687,33 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.168</v>
+        <v>0.319</v>
       </c>
       <c r="E36" t="n">
-        <v>0.304</v>
+        <v>0.468</v>
       </c>
       <c r="F36" t="n">
-        <v>0.223</v>
+        <v>0.402</v>
       </c>
       <c r="G36" t="n">
-        <v>0.304</v>
+        <v>0.468</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.302</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1722,56 +1722,721 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.371</v>
+        <v>0.302</v>
       </c>
       <c r="E37" t="n">
-        <v>0.444</v>
+        <v>0.368</v>
       </c>
       <c r="F37" t="n">
-        <v>0.43</v>
+        <v>0.351</v>
       </c>
       <c r="G37" t="n">
-        <v>0.444</v>
+        <v>0.368</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.444</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>promptN02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>102</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>promptN06</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>promptN05</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>promptN02</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>promptN08</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>promptN09</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>promptN02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>promptN02</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>promptN04</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>promptN09</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>promptN06</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>promptN09</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>promptN07</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>promptN03</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>promptN01</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>gemini-1.5-pro</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>level2</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
         <v>0.245</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E57" t="n">
         <v>0.349</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F57" t="n">
         <v>0.328</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G57" t="n">
         <v>0.349</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0.349</v>
       </c>
     </row>

--- a/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
+++ b/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,12 +553,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,33 +567,33 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.369</v>
+        <v>0.204</v>
       </c>
       <c r="E4" t="n">
-        <v>0.463</v>
+        <v>0.294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.431</v>
+        <v>0.261</v>
       </c>
       <c r="G4" t="n">
-        <v>0.463</v>
+        <v>0.294</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.452</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,33 +602,33 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.358</v>
+        <v>0.369</v>
       </c>
       <c r="E5" t="n">
-        <v>0.429</v>
+        <v>0.463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.403</v>
+        <v>0.431</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.463</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>0.429</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,33 +637,33 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.38</v>
+        <v>0.358</v>
       </c>
       <c r="E6" t="n">
-        <v>0.452</v>
+        <v>0.429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.445</v>
+        <v>0.403</v>
       </c>
       <c r="G6" t="n">
-        <v>0.452</v>
+        <v>0.429</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.452</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.318</v>
+        <v>0.38</v>
       </c>
       <c r="E7" t="n">
-        <v>0.429</v>
+        <v>0.452</v>
       </c>
       <c r="F7" t="n">
-        <v>0.392</v>
+        <v>0.445</v>
       </c>
       <c r="G7" t="n">
-        <v>0.429</v>
+        <v>0.452</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.429</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,33 +707,33 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.361</v>
+        <v>0.169</v>
       </c>
       <c r="E8" t="n">
-        <v>0.455</v>
+        <v>0.31</v>
       </c>
       <c r="F8" t="n">
-        <v>0.415</v>
+        <v>0.237</v>
       </c>
       <c r="G8" t="n">
-        <v>0.455</v>
+        <v>0.31</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.444</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.164</v>
+        <v>0.318</v>
       </c>
       <c r="E9" t="n">
-        <v>0.264</v>
+        <v>0.429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.214</v>
+        <v>0.392</v>
       </c>
       <c r="G9" t="n">
-        <v>0.264</v>
+        <v>0.429</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.262</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.328</v>
+        <v>0.361</v>
       </c>
       <c r="E10" t="n">
-        <v>0.452</v>
+        <v>0.455</v>
       </c>
       <c r="F10" t="n">
-        <v>0.401</v>
+        <v>0.415</v>
       </c>
       <c r="G10" t="n">
-        <v>0.452</v>
+        <v>0.455</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>0.444</v>
@@ -798,12 +798,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -812,28 +812,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.269</v>
+        <v>0.164</v>
       </c>
       <c r="E11" t="n">
-        <v>0.39</v>
+        <v>0.264</v>
       </c>
       <c r="F11" t="n">
-        <v>0.319</v>
+        <v>0.214</v>
       </c>
       <c r="G11" t="n">
-        <v>0.39</v>
+        <v>0.264</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.381</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,33 +847,33 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.319</v>
+        <v>0.328</v>
       </c>
       <c r="E12" t="n">
-        <v>0.427</v>
+        <v>0.452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.382</v>
+        <v>0.401</v>
       </c>
       <c r="G12" t="n">
-        <v>0.427</v>
+        <v>0.452</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -882,28 +882,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.343</v>
+        <v>0.22</v>
       </c>
       <c r="E13" t="n">
-        <v>0.468</v>
+        <v>0.317</v>
       </c>
       <c r="F13" t="n">
-        <v>0.41</v>
+        <v>0.276</v>
       </c>
       <c r="G13" t="n">
-        <v>0.468</v>
+        <v>0.317</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.468</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -917,28 +917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.333</v>
+        <v>0.269</v>
       </c>
       <c r="E14" t="n">
-        <v>0.413</v>
+        <v>0.39</v>
       </c>
       <c r="F14" t="n">
-        <v>0.374</v>
+        <v>0.319</v>
       </c>
       <c r="G14" t="n">
-        <v>0.413</v>
+        <v>0.39</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>0.413</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -952,19 +952,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.33</v>
+        <v>0.319</v>
       </c>
       <c r="E15" t="n">
-        <v>0.434</v>
+        <v>0.427</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4</v>
+        <v>0.382</v>
       </c>
       <c r="G15" t="n">
-        <v>0.434</v>
+        <v>0.427</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0.421</v>
@@ -973,12 +973,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.356</v>
+        <v>0.398</v>
       </c>
       <c r="E16" t="n">
-        <v>0.488</v>
+        <v>0.492</v>
       </c>
       <c r="F16" t="n">
-        <v>0.423</v>
+        <v>0.465</v>
       </c>
       <c r="G16" t="n">
-        <v>0.488</v>
+        <v>0.492</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>0.484</v>
@@ -1008,12 +1008,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1022,33 +1022,33 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.353</v>
+        <v>0.283</v>
       </c>
       <c r="E17" t="n">
-        <v>0.48</v>
+        <v>0.389</v>
       </c>
       <c r="F17" t="n">
-        <v>0.421</v>
+        <v>0.363</v>
       </c>
       <c r="G17" t="n">
-        <v>0.48</v>
+        <v>0.389</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.476</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1057,33 +1057,33 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.34</v>
+        <v>0.315</v>
       </c>
       <c r="E18" t="n">
-        <v>0.44</v>
+        <v>0.433</v>
       </c>
       <c r="F18" t="n">
-        <v>0.416</v>
+        <v>0.39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.44</v>
+        <v>0.433</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>0.437</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1092,33 +1092,33 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.313</v>
+        <v>0.343</v>
       </c>
       <c r="E19" t="n">
-        <v>0.421</v>
+        <v>0.468</v>
       </c>
       <c r="F19" t="n">
-        <v>0.379</v>
+        <v>0.41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.421</v>
+        <v>0.468</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.421</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1127,33 +1127,33 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.397</v>
+        <v>0.333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.452</v>
+        <v>0.413</v>
       </c>
       <c r="F20" t="n">
-        <v>0.432</v>
+        <v>0.374</v>
       </c>
       <c r="G20" t="n">
-        <v>0.452</v>
+        <v>0.413</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.452</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1162,33 +1162,33 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.312</v>
+        <v>0.33</v>
       </c>
       <c r="E21" t="n">
-        <v>0.44</v>
+        <v>0.434</v>
       </c>
       <c r="F21" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.44</v>
+        <v>0.434</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>0.437</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1197,33 +1197,33 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.291</v>
+        <v>0.356</v>
       </c>
       <c r="E22" t="n">
-        <v>0.389</v>
+        <v>0.488</v>
       </c>
       <c r="F22" t="n">
-        <v>0.374</v>
+        <v>0.423</v>
       </c>
       <c r="G22" t="n">
-        <v>0.389</v>
+        <v>0.488</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.389</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1232,28 +1232,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.339</v>
+        <v>0.353</v>
       </c>
       <c r="E23" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="F23" t="n">
-        <v>0.403</v>
+        <v>0.421</v>
       </c>
       <c r="G23" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.429</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.255</v>
+        <v>0.34</v>
       </c>
       <c r="E24" t="n">
-        <v>0.357</v>
+        <v>0.44</v>
       </c>
       <c r="F24" t="n">
-        <v>0.31</v>
+        <v>0.416</v>
       </c>
       <c r="G24" t="n">
-        <v>0.357</v>
+        <v>0.44</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.357</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="25">
@@ -1302,33 +1302,33 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.305</v>
+        <v>0.313</v>
       </c>
       <c r="E25" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="F25" t="n">
-        <v>0.384</v>
+        <v>0.379</v>
       </c>
       <c r="G25" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,33 +1337,33 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.211</v>
+        <v>0.397</v>
       </c>
       <c r="E26" t="n">
-        <v>0.328</v>
+        <v>0.452</v>
       </c>
       <c r="F26" t="n">
-        <v>0.278</v>
+        <v>0.432</v>
       </c>
       <c r="G26" t="n">
-        <v>0.328</v>
+        <v>0.452</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.325</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1372,33 +1372,33 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.277</v>
+        <v>0.299</v>
       </c>
       <c r="E27" t="n">
-        <v>0.365</v>
+        <v>0.397</v>
       </c>
       <c r="F27" t="n">
-        <v>0.321</v>
+        <v>0.383</v>
       </c>
       <c r="G27" t="n">
-        <v>0.365</v>
+        <v>0.397</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.365</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1407,28 +1407,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.273</v>
+        <v>0.312</v>
       </c>
       <c r="E28" t="n">
-        <v>0.357</v>
+        <v>0.44</v>
       </c>
       <c r="F28" t="n">
-        <v>0.353</v>
+        <v>0.37</v>
       </c>
       <c r="G28" t="n">
-        <v>0.357</v>
+        <v>0.44</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.357</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1442,33 +1442,33 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.394</v>
+        <v>0.276</v>
       </c>
       <c r="E29" t="n">
-        <v>0.46</v>
+        <v>0.365</v>
       </c>
       <c r="F29" t="n">
-        <v>0.442</v>
+        <v>0.326</v>
       </c>
       <c r="G29" t="n">
-        <v>0.46</v>
+        <v>0.365</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.46</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.346</v>
+        <v>0.291</v>
       </c>
       <c r="E30" t="n">
-        <v>0.471</v>
+        <v>0.389</v>
       </c>
       <c r="F30" t="n">
-        <v>0.425</v>
+        <v>0.374</v>
       </c>
       <c r="G30" t="n">
-        <v>0.471</v>
+        <v>0.389</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.452</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.387</v>
+        <v>0.339</v>
       </c>
       <c r="E31" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="F31" t="n">
-        <v>0.443</v>
+        <v>0.403</v>
       </c>
       <c r="G31" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>0.452</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="32">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1547,13 +1547,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.281</v>
+        <v>0.255</v>
       </c>
       <c r="E32" t="n">
         <v>0.357</v>
       </c>
       <c r="F32" t="n">
-        <v>0.327</v>
+        <v>0.31</v>
       </c>
       <c r="G32" t="n">
         <v>0.357</v>
@@ -1568,12 +1568,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1582,33 +1582,33 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.358</v>
+        <v>0.305</v>
       </c>
       <c r="E33" t="n">
-        <v>0.448</v>
+        <v>0.429</v>
       </c>
       <c r="F33" t="n">
-        <v>0.422</v>
+        <v>0.384</v>
       </c>
       <c r="G33" t="n">
-        <v>0.448</v>
+        <v>0.429</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.444</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1617,33 +1617,33 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.246</v>
+        <v>0.292</v>
       </c>
       <c r="E34" t="n">
-        <v>0.349</v>
+        <v>0.373</v>
       </c>
       <c r="F34" t="n">
-        <v>0.303</v>
+        <v>0.353</v>
       </c>
       <c r="G34" t="n">
-        <v>0.349</v>
+        <v>0.373</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.349</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1652,33 +1652,33 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.346</v>
+        <v>0.211</v>
       </c>
       <c r="E35" t="n">
-        <v>0.444</v>
+        <v>0.328</v>
       </c>
       <c r="F35" t="n">
-        <v>0.411</v>
+        <v>0.278</v>
       </c>
       <c r="G35" t="n">
-        <v>0.444</v>
+        <v>0.328</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.444</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1687,33 +1687,33 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.319</v>
+        <v>0.179</v>
       </c>
       <c r="E36" t="n">
-        <v>0.468</v>
+        <v>0.312</v>
       </c>
       <c r="F36" t="n">
-        <v>0.402</v>
+        <v>0.261</v>
       </c>
       <c r="G36" t="n">
-        <v>0.468</v>
+        <v>0.312</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.468</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.302</v>
+        <v>0.277</v>
       </c>
       <c r="E37" t="n">
-        <v>0.368</v>
+        <v>0.365</v>
       </c>
       <c r="F37" t="n">
-        <v>0.351</v>
+        <v>0.321</v>
       </c>
       <c r="G37" t="n">
-        <v>0.368</v>
+        <v>0.365</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0.365</v>
@@ -1743,12 +1743,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1757,28 +1757,28 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.333</v>
+        <v>0.149</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4</v>
+        <v>0.302</v>
       </c>
       <c r="F38" t="n">
-        <v>0.387</v>
+        <v>0.226</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>0.302</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.397</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1792,33 +1792,33 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.18</v>
+        <v>0.273</v>
       </c>
       <c r="E39" t="n">
-        <v>0.25</v>
+        <v>0.357</v>
       </c>
       <c r="F39" t="n">
-        <v>0.169</v>
+        <v>0.353</v>
       </c>
       <c r="G39" t="n">
-        <v>0.25</v>
+        <v>0.357</v>
       </c>
       <c r="H39" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.048</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1827,33 +1827,33 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.284</v>
+        <v>0.394</v>
       </c>
       <c r="E40" t="n">
-        <v>0.365</v>
+        <v>0.46</v>
       </c>
       <c r="F40" t="n">
-        <v>0.315</v>
+        <v>0.442</v>
       </c>
       <c r="G40" t="n">
-        <v>0.365</v>
+        <v>0.46</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.365</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1862,33 +1862,33 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.255</v>
+        <v>0.346</v>
       </c>
       <c r="E41" t="n">
-        <v>0.357</v>
+        <v>0.471</v>
       </c>
       <c r="F41" t="n">
-        <v>0.322</v>
+        <v>0.425</v>
       </c>
       <c r="G41" t="n">
-        <v>0.357</v>
+        <v>0.471</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>0.357</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1897,33 +1897,33 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.399</v>
+        <v>0.283</v>
       </c>
       <c r="E42" t="n">
-        <v>0.488</v>
+        <v>0.373</v>
       </c>
       <c r="F42" t="n">
-        <v>0.468</v>
+        <v>0.358</v>
       </c>
       <c r="G42" t="n">
-        <v>0.488</v>
+        <v>0.373</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.476</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1932,33 +1932,33 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.299</v>
+        <v>0.387</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4</v>
+        <v>0.452</v>
       </c>
       <c r="F43" t="n">
-        <v>0.339</v>
+        <v>0.443</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>0.452</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.397</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1967,28 +1967,28 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.267</v>
+        <v>0.281</v>
       </c>
       <c r="E44" t="n">
-        <v>0.365</v>
+        <v>0.357</v>
       </c>
       <c r="F44" t="n">
-        <v>0.359</v>
+        <v>0.327</v>
       </c>
       <c r="G44" t="n">
-        <v>0.365</v>
+        <v>0.357</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.365</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2002,28 +2002,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.301</v>
+        <v>0.358</v>
       </c>
       <c r="E45" t="n">
-        <v>0.416</v>
+        <v>0.448</v>
       </c>
       <c r="F45" t="n">
-        <v>0.356</v>
+        <v>0.422</v>
       </c>
       <c r="G45" t="n">
-        <v>0.416</v>
+        <v>0.448</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.413</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2037,33 +2037,33 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.289</v>
+        <v>0.246</v>
       </c>
       <c r="E46" t="n">
-        <v>0.427</v>
+        <v>0.349</v>
       </c>
       <c r="F46" t="n">
-        <v>0.36</v>
+        <v>0.303</v>
       </c>
       <c r="G46" t="n">
-        <v>0.427</v>
+        <v>0.349</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.421</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2072,33 +2072,33 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.359</v>
+        <v>0.241</v>
       </c>
       <c r="E47" t="n">
-        <v>0.416</v>
+        <v>0.357</v>
       </c>
       <c r="F47" t="n">
-        <v>0.405</v>
+        <v>0.316</v>
       </c>
       <c r="G47" t="n">
-        <v>0.416</v>
+        <v>0.357</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.413</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.374</v>
+        <v>0.346</v>
       </c>
       <c r="E48" t="n">
         <v>0.444</v>
       </c>
       <c r="F48" t="n">
-        <v>0.433</v>
+        <v>0.411</v>
       </c>
       <c r="G48" t="n">
         <v>0.444</v>
@@ -2128,12 +2128,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2142,28 +2142,28 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.299</v>
+        <v>0.319</v>
       </c>
       <c r="E49" t="n">
-        <v>0.405</v>
+        <v>0.468</v>
       </c>
       <c r="F49" t="n">
-        <v>0.384</v>
+        <v>0.402</v>
       </c>
       <c r="G49" t="n">
-        <v>0.405</v>
+        <v>0.468</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.405</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2177,28 +2177,28 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.284</v>
+        <v>0.302</v>
       </c>
       <c r="E50" t="n">
-        <v>0.415</v>
+        <v>0.368</v>
       </c>
       <c r="F50" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="G50" t="n">
-        <v>0.415</v>
+        <v>0.368</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.405</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2212,28 +2212,28 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.26</v>
+        <v>0.333</v>
       </c>
       <c r="E51" t="n">
-        <v>0.349</v>
+        <v>0.4</v>
       </c>
       <c r="F51" t="n">
-        <v>0.296</v>
+        <v>0.387</v>
       </c>
       <c r="G51" t="n">
-        <v>0.349</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.349</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2247,33 +2247,33 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.128</v>
+        <v>0.18</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2</v>
+        <v>0.169</v>
       </c>
       <c r="G52" t="n">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="I52" t="n">
-        <v>0.246</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2282,33 +2282,33 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.333</v>
+        <v>0.132</v>
       </c>
       <c r="E53" t="n">
-        <v>0.448</v>
+        <v>0.254</v>
       </c>
       <c r="F53" t="n">
-        <v>0.403</v>
+        <v>0.202</v>
       </c>
       <c r="G53" t="n">
-        <v>0.448</v>
+        <v>0.254</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.444</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2317,33 +2317,33 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.168</v>
+        <v>0.284</v>
       </c>
       <c r="E54" t="n">
-        <v>0.304</v>
+        <v>0.365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.223</v>
+        <v>0.315</v>
       </c>
       <c r="G54" t="n">
-        <v>0.304</v>
+        <v>0.365</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.302</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2352,28 +2352,28 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.302</v>
+        <v>0.255</v>
       </c>
       <c r="E55" t="n">
-        <v>0.431</v>
+        <v>0.357</v>
       </c>
       <c r="F55" t="n">
-        <v>0.381</v>
+        <v>0.322</v>
       </c>
       <c r="G55" t="n">
-        <v>0.431</v>
+        <v>0.357</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.421</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2387,56 +2387,616 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.371</v>
+        <v>0.399</v>
       </c>
       <c r="E56" t="n">
-        <v>0.444</v>
+        <v>0.488</v>
       </c>
       <c r="F56" t="n">
-        <v>0.43</v>
+        <v>0.468</v>
       </c>
       <c r="G56" t="n">
-        <v>0.444</v>
+        <v>0.488</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>0.444</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>promptN02</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>promptN08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="H60" t="n">
+        <v>100</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>promptN09</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>promptN02</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>promptN02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>promptN04</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>promptN09</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>promptN01</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>promptN06</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>promptN09</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>promptN07</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>promptN03</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>promptN01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>gemini-1.5-pro</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>level2</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>0.245</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E73" t="n">
         <v>0.349</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F73" t="n">
         <v>0.328</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G73" t="n">
         <v>0.349</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.349</v>
       </c>
     </row>

--- a/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
+++ b/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,33 +497,33 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.241</v>
+        <v>0.361</v>
       </c>
       <c r="E2" t="n">
-        <v>0.333</v>
+        <v>0.455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.297</v>
+        <v>0.415</v>
       </c>
       <c r="G2" t="n">
-        <v>0.333</v>
+        <v>0.455</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -532,33 +532,33 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.255</v>
+        <v>0.374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.304</v>
+        <v>0.433</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,33 +567,33 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.204</v>
+        <v>0.343</v>
       </c>
       <c r="E4" t="n">
-        <v>0.294</v>
+        <v>0.468</v>
       </c>
       <c r="F4" t="n">
-        <v>0.261</v>
+        <v>0.41</v>
       </c>
       <c r="G4" t="n">
-        <v>0.294</v>
+        <v>0.468</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.294</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,33 +602,33 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.369</v>
+        <v>0.246</v>
       </c>
       <c r="E5" t="n">
-        <v>0.463</v>
+        <v>0.349</v>
       </c>
       <c r="F5" t="n">
-        <v>0.431</v>
+        <v>0.303</v>
       </c>
       <c r="G5" t="n">
-        <v>0.463</v>
+        <v>0.349</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,28 +637,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.358</v>
+        <v>0.267</v>
       </c>
       <c r="E6" t="n">
-        <v>0.429</v>
+        <v>0.365</v>
       </c>
       <c r="F6" t="n">
-        <v>0.403</v>
+        <v>0.359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.429</v>
+        <v>0.365</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.429</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -672,33 +672,33 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.38</v>
+        <v>0.319</v>
       </c>
       <c r="E7" t="n">
-        <v>0.452</v>
+        <v>0.427</v>
       </c>
       <c r="F7" t="n">
-        <v>0.445</v>
+        <v>0.382</v>
       </c>
       <c r="G7" t="n">
-        <v>0.452</v>
+        <v>0.427</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.452</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,33 +707,33 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.169</v>
+        <v>0.315</v>
       </c>
       <c r="E8" t="n">
-        <v>0.31</v>
+        <v>0.433</v>
       </c>
       <c r="F8" t="n">
-        <v>0.237</v>
+        <v>0.39</v>
       </c>
       <c r="G8" t="n">
-        <v>0.31</v>
+        <v>0.433</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>0.31</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -742,33 +742,33 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.318</v>
+        <v>0.128</v>
       </c>
       <c r="E9" t="n">
-        <v>0.429</v>
+        <v>0.248</v>
       </c>
       <c r="F9" t="n">
-        <v>0.392</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.429</v>
+        <v>0.248</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.429</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,28 +777,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.361</v>
+        <v>0.273</v>
       </c>
       <c r="E10" t="n">
-        <v>0.455</v>
+        <v>0.357</v>
       </c>
       <c r="F10" t="n">
-        <v>0.415</v>
+        <v>0.353</v>
       </c>
       <c r="G10" t="n">
-        <v>0.455</v>
+        <v>0.357</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.444</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -812,33 +812,33 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.164</v>
+        <v>0.22</v>
       </c>
       <c r="E11" t="n">
-        <v>0.264</v>
+        <v>0.317</v>
       </c>
       <c r="F11" t="n">
-        <v>0.214</v>
+        <v>0.276</v>
       </c>
       <c r="G11" t="n">
-        <v>0.264</v>
+        <v>0.317</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.262</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -847,33 +847,33 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.328</v>
+        <v>0.299</v>
       </c>
       <c r="E12" t="n">
-        <v>0.452</v>
+        <v>0.405</v>
       </c>
       <c r="F12" t="n">
-        <v>0.401</v>
+        <v>0.384</v>
       </c>
       <c r="G12" t="n">
-        <v>0.452</v>
+        <v>0.405</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.444</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -882,28 +882,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.22</v>
+        <v>0.241</v>
       </c>
       <c r="E13" t="n">
-        <v>0.317</v>
+        <v>0.357</v>
       </c>
       <c r="F13" t="n">
-        <v>0.276</v>
+        <v>0.316</v>
       </c>
       <c r="G13" t="n">
-        <v>0.317</v>
+        <v>0.357</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.317</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -917,33 +917,33 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.269</v>
+        <v>0.358</v>
       </c>
       <c r="E14" t="n">
-        <v>0.39</v>
+        <v>0.448</v>
       </c>
       <c r="F14" t="n">
-        <v>0.319</v>
+        <v>0.422</v>
       </c>
       <c r="G14" t="n">
-        <v>0.39</v>
+        <v>0.448</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.381</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -952,33 +952,33 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.319</v>
+        <v>0.284</v>
       </c>
       <c r="E15" t="n">
-        <v>0.427</v>
+        <v>0.415</v>
       </c>
       <c r="F15" t="n">
-        <v>0.382</v>
+        <v>0.355</v>
       </c>
       <c r="G15" t="n">
-        <v>0.427</v>
+        <v>0.415</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>0.421</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.398</v>
+        <v>0.291</v>
       </c>
       <c r="E16" t="n">
-        <v>0.492</v>
+        <v>0.389</v>
       </c>
       <c r="F16" t="n">
-        <v>0.465</v>
+        <v>0.374</v>
       </c>
       <c r="G16" t="n">
-        <v>0.492</v>
+        <v>0.389</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.484</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="17">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1022,28 +1022,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.283</v>
+        <v>0.318</v>
       </c>
       <c r="E17" t="n">
-        <v>0.389</v>
+        <v>0.429</v>
       </c>
       <c r="F17" t="n">
-        <v>0.363</v>
+        <v>0.392</v>
       </c>
       <c r="G17" t="n">
-        <v>0.389</v>
+        <v>0.429</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.389</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1057,33 +1057,33 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.315</v>
+        <v>0.397</v>
       </c>
       <c r="E18" t="n">
-        <v>0.433</v>
+        <v>0.452</v>
       </c>
       <c r="F18" t="n">
-        <v>0.39</v>
+        <v>0.432</v>
       </c>
       <c r="G18" t="n">
-        <v>0.433</v>
+        <v>0.452</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.413</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1092,33 +1092,33 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.343</v>
+        <v>0.313</v>
       </c>
       <c r="E19" t="n">
-        <v>0.468</v>
+        <v>0.421</v>
       </c>
       <c r="F19" t="n">
-        <v>0.41</v>
+        <v>0.379</v>
       </c>
       <c r="G19" t="n">
-        <v>0.468</v>
+        <v>0.421</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.468</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1127,28 +1127,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.333</v>
+        <v>0.369</v>
       </c>
       <c r="E20" t="n">
-        <v>0.413</v>
+        <v>0.463</v>
       </c>
       <c r="F20" t="n">
-        <v>0.374</v>
+        <v>0.431</v>
       </c>
       <c r="G20" t="n">
-        <v>0.413</v>
+        <v>0.463</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>0.413</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1162,33 +1162,33 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.33</v>
+        <v>0.387</v>
       </c>
       <c r="E21" t="n">
-        <v>0.434</v>
+        <v>0.452</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4</v>
+        <v>0.443</v>
       </c>
       <c r="G21" t="n">
-        <v>0.434</v>
+        <v>0.452</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.421</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1197,33 +1197,33 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.356</v>
+        <v>0.255</v>
       </c>
       <c r="E22" t="n">
-        <v>0.488</v>
+        <v>0.333</v>
       </c>
       <c r="F22" t="n">
-        <v>0.423</v>
+        <v>0.304</v>
       </c>
       <c r="G22" t="n">
-        <v>0.488</v>
+        <v>0.333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.484</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1232,33 +1232,33 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.353</v>
+        <v>0.168</v>
       </c>
       <c r="E23" t="n">
-        <v>0.48</v>
+        <v>0.304</v>
       </c>
       <c r="F23" t="n">
-        <v>0.421</v>
+        <v>0.223</v>
       </c>
       <c r="G23" t="n">
-        <v>0.48</v>
+        <v>0.304</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.476</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1267,33 +1267,33 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.34</v>
+        <v>0.328</v>
       </c>
       <c r="E24" t="n">
-        <v>0.44</v>
+        <v>0.452</v>
       </c>
       <c r="F24" t="n">
-        <v>0.416</v>
+        <v>0.401</v>
       </c>
       <c r="G24" t="n">
-        <v>0.44</v>
+        <v>0.452</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0.437</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1302,33 +1302,33 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.313</v>
+        <v>0.333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.421</v>
+        <v>0.413</v>
       </c>
       <c r="F25" t="n">
-        <v>0.379</v>
+        <v>0.374</v>
       </c>
       <c r="G25" t="n">
-        <v>0.421</v>
+        <v>0.413</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.421</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,28 +1337,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.397</v>
+        <v>0.26</v>
       </c>
       <c r="E26" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="F26" t="n">
-        <v>0.432</v>
+        <v>0.296</v>
       </c>
       <c r="G26" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.299</v>
+        <v>0.255</v>
       </c>
       <c r="E27" t="n">
-        <v>0.397</v>
+        <v>0.357</v>
       </c>
       <c r="F27" t="n">
-        <v>0.383</v>
+        <v>0.322</v>
       </c>
       <c r="G27" t="n">
-        <v>0.397</v>
+        <v>0.357</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.397</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="28">
@@ -1428,12 +1428,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1442,33 +1442,33 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.276</v>
+        <v>0.299</v>
       </c>
       <c r="E29" t="n">
-        <v>0.365</v>
+        <v>0.4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.326</v>
+        <v>0.339</v>
       </c>
       <c r="G29" t="n">
-        <v>0.365</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.365</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1477,33 +1477,33 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.291</v>
+        <v>0.281</v>
       </c>
       <c r="E30" t="n">
-        <v>0.389</v>
+        <v>0.357</v>
       </c>
       <c r="F30" t="n">
-        <v>0.374</v>
+        <v>0.327</v>
       </c>
       <c r="G30" t="n">
-        <v>0.389</v>
+        <v>0.357</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.389</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1512,33 +1512,33 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.339</v>
+        <v>0.333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="F31" t="n">
-        <v>0.403</v>
+        <v>0.387</v>
       </c>
       <c r="G31" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.429</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1547,33 +1547,33 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.255</v>
+        <v>0.18</v>
       </c>
       <c r="E32" t="n">
-        <v>0.357</v>
+        <v>0.25</v>
       </c>
       <c r="F32" t="n">
-        <v>0.31</v>
+        <v>0.169</v>
       </c>
       <c r="G32" t="n">
-        <v>0.357</v>
+        <v>0.25</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I32" t="n">
-        <v>0.357</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1582,28 +1582,28 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.305</v>
+        <v>0.302</v>
       </c>
       <c r="E33" t="n">
-        <v>0.429</v>
+        <v>0.368</v>
       </c>
       <c r="F33" t="n">
-        <v>0.384</v>
+        <v>0.351</v>
       </c>
       <c r="G33" t="n">
-        <v>0.429</v>
+        <v>0.368</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.429</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1617,28 +1617,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.292</v>
+        <v>0.211</v>
       </c>
       <c r="E34" t="n">
-        <v>0.373</v>
+        <v>0.328</v>
       </c>
       <c r="F34" t="n">
-        <v>0.353</v>
+        <v>0.278</v>
       </c>
       <c r="G34" t="n">
-        <v>0.373</v>
+        <v>0.328</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.373</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1652,33 +1652,33 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.211</v>
+        <v>0.164</v>
       </c>
       <c r="E35" t="n">
-        <v>0.328</v>
+        <v>0.264</v>
       </c>
       <c r="F35" t="n">
-        <v>0.278</v>
+        <v>0.214</v>
       </c>
       <c r="G35" t="n">
-        <v>0.328</v>
+        <v>0.264</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.325</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1687,28 +1687,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.179</v>
+        <v>0.319</v>
       </c>
       <c r="E36" t="n">
-        <v>0.312</v>
+        <v>0.468</v>
       </c>
       <c r="F36" t="n">
-        <v>0.261</v>
+        <v>0.402</v>
       </c>
       <c r="G36" t="n">
-        <v>0.312</v>
+        <v>0.468</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.31</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.277</v>
+        <v>0.398</v>
       </c>
       <c r="E37" t="n">
-        <v>0.365</v>
+        <v>0.492</v>
       </c>
       <c r="F37" t="n">
-        <v>0.321</v>
+        <v>0.465</v>
       </c>
       <c r="G37" t="n">
-        <v>0.365</v>
+        <v>0.492</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0.365</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="38">
@@ -1778,12 +1778,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1792,33 +1792,33 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.273</v>
+        <v>0.277</v>
       </c>
       <c r="E39" t="n">
-        <v>0.357</v>
+        <v>0.365</v>
       </c>
       <c r="F39" t="n">
-        <v>0.353</v>
+        <v>0.321</v>
       </c>
       <c r="G39" t="n">
-        <v>0.357</v>
+        <v>0.365</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.357</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1827,28 +1827,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.394</v>
+        <v>0.356</v>
       </c>
       <c r="E40" t="n">
-        <v>0.46</v>
+        <v>0.488</v>
       </c>
       <c r="F40" t="n">
-        <v>0.442</v>
+        <v>0.423</v>
       </c>
       <c r="G40" t="n">
-        <v>0.46</v>
+        <v>0.488</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.46</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1862,33 +1862,33 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.346</v>
+        <v>0.399</v>
       </c>
       <c r="E41" t="n">
-        <v>0.471</v>
+        <v>0.488</v>
       </c>
       <c r="F41" t="n">
-        <v>0.425</v>
+        <v>0.468</v>
       </c>
       <c r="G41" t="n">
-        <v>0.471</v>
+        <v>0.488</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>0.452</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1897,33 +1897,33 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.283</v>
+        <v>0.245</v>
       </c>
       <c r="E42" t="n">
-        <v>0.373</v>
+        <v>0.349</v>
       </c>
       <c r="F42" t="n">
-        <v>0.358</v>
+        <v>0.328</v>
       </c>
       <c r="G42" t="n">
-        <v>0.373</v>
+        <v>0.349</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.373</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1932,33 +1932,33 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.387</v>
+        <v>0.179</v>
       </c>
       <c r="E43" t="n">
-        <v>0.452</v>
+        <v>0.312</v>
       </c>
       <c r="F43" t="n">
-        <v>0.443</v>
+        <v>0.261</v>
       </c>
       <c r="G43" t="n">
-        <v>0.452</v>
+        <v>0.312</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.452</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1967,33 +1967,33 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.281</v>
+        <v>0.284</v>
       </c>
       <c r="E44" t="n">
-        <v>0.357</v>
+        <v>0.365</v>
       </c>
       <c r="F44" t="n">
-        <v>0.327</v>
+        <v>0.315</v>
       </c>
       <c r="G44" t="n">
-        <v>0.357</v>
+        <v>0.365</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.357</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2002,28 +2002,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.358</v>
+        <v>0.204</v>
       </c>
       <c r="E45" t="n">
-        <v>0.448</v>
+        <v>0.294</v>
       </c>
       <c r="F45" t="n">
-        <v>0.422</v>
+        <v>0.261</v>
       </c>
       <c r="G45" t="n">
-        <v>0.448</v>
+        <v>0.294</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.444</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2037,33 +2037,33 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.246</v>
+        <v>0.301</v>
       </c>
       <c r="E46" t="n">
-        <v>0.349</v>
+        <v>0.416</v>
       </c>
       <c r="F46" t="n">
-        <v>0.303</v>
+        <v>0.356</v>
       </c>
       <c r="G46" t="n">
-        <v>0.349</v>
+        <v>0.416</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.349</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2072,33 +2072,33 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.241</v>
+        <v>0.269</v>
       </c>
       <c r="E47" t="n">
-        <v>0.357</v>
+        <v>0.39</v>
       </c>
       <c r="F47" t="n">
-        <v>0.316</v>
+        <v>0.319</v>
       </c>
       <c r="G47" t="n">
-        <v>0.357</v>
+        <v>0.39</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>0.357</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2107,28 +2107,28 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.346</v>
+        <v>0.276</v>
       </c>
       <c r="E48" t="n">
-        <v>0.444</v>
+        <v>0.365</v>
       </c>
       <c r="F48" t="n">
-        <v>0.411</v>
+        <v>0.326</v>
       </c>
       <c r="G48" t="n">
-        <v>0.444</v>
+        <v>0.365</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.444</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2142,33 +2142,33 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.319</v>
+        <v>0.359</v>
       </c>
       <c r="E49" t="n">
-        <v>0.468</v>
+        <v>0.416</v>
       </c>
       <c r="F49" t="n">
-        <v>0.402</v>
+        <v>0.405</v>
       </c>
       <c r="G49" t="n">
-        <v>0.468</v>
+        <v>0.416</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.468</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2177,33 +2177,33 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.302</v>
+        <v>0.105</v>
       </c>
       <c r="E50" t="n">
-        <v>0.368</v>
+        <v>0.231</v>
       </c>
       <c r="F50" t="n">
-        <v>0.351</v>
+        <v>0.163</v>
       </c>
       <c r="G50" t="n">
-        <v>0.368</v>
+        <v>0.231</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I50" t="n">
-        <v>0.365</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2212,28 +2212,28 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.333</v>
+        <v>0.346</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4</v>
+        <v>0.471</v>
       </c>
       <c r="F51" t="n">
-        <v>0.387</v>
+        <v>0.425</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>0.471</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>0.397</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2247,33 +2247,33 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.18</v>
+        <v>0.271</v>
       </c>
       <c r="E52" t="n">
-        <v>0.25</v>
+        <v>0.349</v>
       </c>
       <c r="F52" t="n">
-        <v>0.169</v>
+        <v>0.331</v>
       </c>
       <c r="G52" t="n">
-        <v>0.25</v>
+        <v>0.349</v>
       </c>
       <c r="H52" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.048</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2282,33 +2282,33 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.132</v>
+        <v>0.371</v>
       </c>
       <c r="E53" t="n">
-        <v>0.254</v>
+        <v>0.444</v>
       </c>
       <c r="F53" t="n">
-        <v>0.202</v>
+        <v>0.43</v>
       </c>
       <c r="G53" t="n">
-        <v>0.254</v>
+        <v>0.444</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.254</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.284</v>
+        <v>0.169</v>
       </c>
       <c r="E54" t="n">
-        <v>0.365</v>
+        <v>0.31</v>
       </c>
       <c r="F54" t="n">
-        <v>0.315</v>
+        <v>0.237</v>
       </c>
       <c r="G54" t="n">
-        <v>0.365</v>
+        <v>0.31</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.365</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="55">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.255</v>
+        <v>0.333</v>
       </c>
       <c r="E55" t="n">
-        <v>0.357</v>
+        <v>0.448</v>
       </c>
       <c r="F55" t="n">
-        <v>0.322</v>
+        <v>0.403</v>
       </c>
       <c r="G55" t="n">
-        <v>0.357</v>
+        <v>0.448</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.357</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="56">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2387,33 +2387,33 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.399</v>
+        <v>0.358</v>
       </c>
       <c r="E56" t="n">
-        <v>0.488</v>
+        <v>0.429</v>
       </c>
       <c r="F56" t="n">
-        <v>0.468</v>
+        <v>0.403</v>
       </c>
       <c r="G56" t="n">
-        <v>0.488</v>
+        <v>0.429</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.476</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2425,16 +2425,16 @@
         <v>0.299</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4</v>
+        <v>0.397</v>
       </c>
       <c r="F57" t="n">
-        <v>0.339</v>
+        <v>0.383</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>0.397</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0.397</v>
@@ -2443,12 +2443,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2457,28 +2457,28 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.267</v>
+        <v>0.394</v>
       </c>
       <c r="E58" t="n">
-        <v>0.365</v>
+        <v>0.46</v>
       </c>
       <c r="F58" t="n">
-        <v>0.359</v>
+        <v>0.442</v>
       </c>
       <c r="G58" t="n">
-        <v>0.365</v>
+        <v>0.46</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.365</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2492,33 +2492,33 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.301</v>
+        <v>0.346</v>
       </c>
       <c r="E59" t="n">
-        <v>0.416</v>
+        <v>0.444</v>
       </c>
       <c r="F59" t="n">
-        <v>0.356</v>
+        <v>0.411</v>
       </c>
       <c r="G59" t="n">
-        <v>0.416</v>
+        <v>0.444</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.413</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2527,28 +2527,28 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.105</v>
+        <v>0.305</v>
       </c>
       <c r="E60" t="n">
-        <v>0.231</v>
+        <v>0.429</v>
       </c>
       <c r="F60" t="n">
-        <v>0.163</v>
+        <v>0.384</v>
       </c>
       <c r="G60" t="n">
-        <v>0.231</v>
+        <v>0.429</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.048</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2562,33 +2562,33 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.289</v>
+        <v>0.34</v>
       </c>
       <c r="E61" t="n">
-        <v>0.427</v>
+        <v>0.44</v>
       </c>
       <c r="F61" t="n">
-        <v>0.36</v>
+        <v>0.416</v>
       </c>
       <c r="G61" t="n">
-        <v>0.427</v>
+        <v>0.44</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.421</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2597,33 +2597,33 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.359</v>
+        <v>0.283</v>
       </c>
       <c r="E62" t="n">
-        <v>0.416</v>
+        <v>0.389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.405</v>
+        <v>0.363</v>
       </c>
       <c r="G62" t="n">
-        <v>0.416</v>
+        <v>0.389</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.413</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2632,28 +2632,28 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.374</v>
+        <v>0.289</v>
       </c>
       <c r="E63" t="n">
-        <v>0.444</v>
+        <v>0.427</v>
       </c>
       <c r="F63" t="n">
-        <v>0.433</v>
+        <v>0.36</v>
       </c>
       <c r="G63" t="n">
-        <v>0.444</v>
+        <v>0.427</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0.444</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2667,33 +2667,33 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.299</v>
+        <v>0.292</v>
       </c>
       <c r="E64" t="n">
-        <v>0.405</v>
+        <v>0.373</v>
       </c>
       <c r="F64" t="n">
-        <v>0.384</v>
+        <v>0.353</v>
       </c>
       <c r="G64" t="n">
-        <v>0.405</v>
+        <v>0.373</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.405</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2702,33 +2702,33 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.284</v>
+        <v>0.132</v>
       </c>
       <c r="E65" t="n">
-        <v>0.415</v>
+        <v>0.254</v>
       </c>
       <c r="F65" t="n">
-        <v>0.355</v>
+        <v>0.202</v>
       </c>
       <c r="G65" t="n">
-        <v>0.415</v>
+        <v>0.254</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.405</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2737,33 +2737,33 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.26</v>
+        <v>0.241</v>
       </c>
       <c r="E66" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="F66" t="n">
-        <v>0.296</v>
+        <v>0.297</v>
       </c>
       <c r="G66" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2772,33 +2772,33 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.271</v>
+        <v>0.339</v>
       </c>
       <c r="E67" t="n">
-        <v>0.349</v>
+        <v>0.45</v>
       </c>
       <c r="F67" t="n">
-        <v>0.331</v>
+        <v>0.403</v>
       </c>
       <c r="G67" t="n">
-        <v>0.349</v>
+        <v>0.45</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>0.349</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2807,28 +2807,28 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.128</v>
+        <v>0.353</v>
       </c>
       <c r="E68" t="n">
-        <v>0.248</v>
+        <v>0.48</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2</v>
+        <v>0.421</v>
       </c>
       <c r="G68" t="n">
-        <v>0.248</v>
+        <v>0.48</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.246</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2842,33 +2842,33 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.333</v>
+        <v>0.38</v>
       </c>
       <c r="E69" t="n">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
       <c r="F69" t="n">
-        <v>0.403</v>
+        <v>0.445</v>
       </c>
       <c r="G69" t="n">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.444</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN12</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2877,33 +2877,33 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.168</v>
+        <v>0.255</v>
       </c>
       <c r="E70" t="n">
-        <v>0.304</v>
+        <v>0.357</v>
       </c>
       <c r="F70" t="n">
-        <v>0.223</v>
+        <v>0.31</v>
       </c>
       <c r="G70" t="n">
-        <v>0.304</v>
+        <v>0.357</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.302</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2912,28 +2912,28 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.302</v>
+        <v>0.283</v>
       </c>
       <c r="E71" t="n">
-        <v>0.431</v>
+        <v>0.373</v>
       </c>
       <c r="F71" t="n">
-        <v>0.381</v>
+        <v>0.358</v>
       </c>
       <c r="G71" t="n">
-        <v>0.431</v>
+        <v>0.373</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.421</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2947,33 +2947,33 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.371</v>
+        <v>0.302</v>
       </c>
       <c r="E72" t="n">
-        <v>0.444</v>
+        <v>0.431</v>
       </c>
       <c r="F72" t="n">
-        <v>0.43</v>
+        <v>0.381</v>
       </c>
       <c r="G72" t="n">
-        <v>0.444</v>
+        <v>0.431</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>0.444</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2982,22 +2982,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.245</v>
+        <v>0.33</v>
       </c>
       <c r="E73" t="n">
-        <v>0.349</v>
+        <v>0.434</v>
       </c>
       <c r="F73" t="n">
-        <v>0.328</v>
+        <v>0.4</v>
       </c>
       <c r="G73" t="n">
-        <v>0.349</v>
+        <v>0.434</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>0.349</v>
+        <v>0.421</v>
       </c>
     </row>
   </sheetData>

--- a/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
+++ b/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,16 @@
           <t>adjusted_accuracy</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>numeric_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -497,33 +502,36 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.361</v>
+        <v>0.394</v>
       </c>
       <c r="E2" t="n">
-        <v>0.455</v>
+        <v>0.46</v>
       </c>
       <c r="F2" t="n">
-        <v>0.415</v>
+        <v>0.442</v>
       </c>
       <c r="G2" t="n">
-        <v>0.455</v>
+        <v>0.46</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.444</v>
+        <v>0.46</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -532,33 +540,36 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.374</v>
+        <v>0.248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.444</v>
+        <v>0.302</v>
       </c>
       <c r="F3" t="n">
-        <v>0.433</v>
+        <v>0.298</v>
       </c>
       <c r="G3" t="n">
-        <v>0.444</v>
+        <v>0.302</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.444</v>
+        <v>0.302</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,33 +578,36 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.343</v>
+        <v>0.271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.468</v>
+        <v>0.349</v>
       </c>
       <c r="F4" t="n">
-        <v>0.41</v>
+        <v>0.331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.468</v>
+        <v>0.349</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.468</v>
+        <v>0.349</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,33 +616,36 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.246</v>
+        <v>0.255</v>
       </c>
       <c r="E5" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.303</v>
+        <v>0.304</v>
       </c>
       <c r="G5" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,33 +654,36 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.267</v>
+        <v>0.271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.365</v>
+        <v>0.349</v>
       </c>
       <c r="F6" t="n">
-        <v>0.359</v>
+        <v>0.335</v>
       </c>
       <c r="G6" t="n">
-        <v>0.365</v>
+        <v>0.349</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.365</v>
+        <v>0.349</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,33 +692,36 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.319</v>
+        <v>0.245</v>
       </c>
       <c r="E7" t="n">
-        <v>0.427</v>
+        <v>0.349</v>
       </c>
       <c r="F7" t="n">
-        <v>0.382</v>
+        <v>0.328</v>
       </c>
       <c r="G7" t="n">
-        <v>0.427</v>
+        <v>0.349</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.421</v>
+        <v>0.349</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,33 +730,36 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.315</v>
+        <v>0.302</v>
       </c>
       <c r="E8" t="n">
-        <v>0.433</v>
+        <v>0.368</v>
       </c>
       <c r="F8" t="n">
-        <v>0.39</v>
+        <v>0.351</v>
       </c>
       <c r="G8" t="n">
-        <v>0.433</v>
+        <v>0.368</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.413</v>
+        <v>0.365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -742,33 +768,36 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.128</v>
+        <v>0.397</v>
       </c>
       <c r="E9" t="n">
-        <v>0.248</v>
+        <v>0.452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2</v>
+        <v>0.432</v>
       </c>
       <c r="G9" t="n">
-        <v>0.248</v>
+        <v>0.452</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,33 +806,36 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.273</v>
+        <v>0.333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.357</v>
+        <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.353</v>
+        <v>0.387</v>
       </c>
       <c r="G10" t="n">
-        <v>0.357</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.357</v>
+        <v>0.397</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -812,33 +844,36 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.22</v>
+        <v>0.335</v>
       </c>
       <c r="E11" t="n">
-        <v>0.317</v>
+        <v>0.381</v>
       </c>
       <c r="F11" t="n">
-        <v>0.276</v>
+        <v>0.36</v>
       </c>
       <c r="G11" t="n">
-        <v>0.317</v>
+        <v>0.381</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.317</v>
+        <v>0.381</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -847,33 +882,36 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.299</v>
+        <v>0.38</v>
       </c>
       <c r="E12" t="n">
-        <v>0.405</v>
+        <v>0.452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.384</v>
+        <v>0.445</v>
       </c>
       <c r="G12" t="n">
-        <v>0.405</v>
+        <v>0.452</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.405</v>
+        <v>0.452</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -882,33 +920,36 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.241</v>
+        <v>0.267</v>
       </c>
       <c r="E13" t="n">
-        <v>0.357</v>
+        <v>0.365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.316</v>
+        <v>0.359</v>
       </c>
       <c r="G13" t="n">
-        <v>0.357</v>
+        <v>0.365</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.357</v>
+        <v>0.365</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -917,28 +958,31 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.358</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.422</v>
-      </c>
       <c r="G14" t="n">
-        <v>0.448</v>
+        <v>0.373</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.444</v>
+        <v>0.373</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -952,33 +996,36 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.284</v>
+        <v>0.359</v>
       </c>
       <c r="E15" t="n">
-        <v>0.415</v>
+        <v>0.416</v>
       </c>
       <c r="F15" t="n">
-        <v>0.355</v>
+        <v>0.405</v>
       </c>
       <c r="G15" t="n">
-        <v>0.415</v>
+        <v>0.416</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.405</v>
+        <v>0.413</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -987,33 +1034,36 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.291</v>
+        <v>0.374</v>
       </c>
       <c r="E16" t="n">
-        <v>0.389</v>
+        <v>0.444</v>
       </c>
       <c r="F16" t="n">
-        <v>0.374</v>
+        <v>0.433</v>
       </c>
       <c r="G16" t="n">
-        <v>0.389</v>
+        <v>0.444</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.389</v>
+        <v>0.444</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1022,33 +1072,36 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.318</v>
+        <v>0.305</v>
       </c>
       <c r="E17" t="n">
-        <v>0.429</v>
+        <v>0.341</v>
       </c>
       <c r="F17" t="n">
-        <v>0.392</v>
+        <v>0.352</v>
       </c>
       <c r="G17" t="n">
-        <v>0.429</v>
+        <v>0.341</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.429</v>
+        <v>0.341</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1057,28 +1110,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.397</v>
+        <v>0.34</v>
       </c>
       <c r="E18" t="n">
-        <v>0.452</v>
+        <v>0.44</v>
       </c>
       <c r="F18" t="n">
-        <v>0.432</v>
+        <v>0.416</v>
       </c>
       <c r="G18" t="n">
-        <v>0.452</v>
+        <v>0.44</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.452</v>
+        <v>0.437</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1092,33 +1148,36 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.313</v>
+        <v>0.371</v>
       </c>
       <c r="E19" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="F19" t="n">
-        <v>0.379</v>
+        <v>0.43</v>
       </c>
       <c r="G19" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1127,22 +1186,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.369</v>
+        <v>0.358</v>
       </c>
       <c r="E20" t="n">
-        <v>0.463</v>
+        <v>0.448</v>
       </c>
       <c r="F20" t="n">
-        <v>0.431</v>
+        <v>0.422</v>
       </c>
       <c r="G20" t="n">
-        <v>0.463</v>
+        <v>0.448</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="J20" t="n">
         <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.452</v>
       </c>
     </row>
     <row r="21">
@@ -1153,7 +1215,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1162,28 +1224,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.387</v>
+        <v>0.299</v>
       </c>
       <c r="E21" t="n">
-        <v>0.452</v>
+        <v>0.397</v>
       </c>
       <c r="F21" t="n">
-        <v>0.443</v>
+        <v>0.383</v>
       </c>
       <c r="G21" t="n">
-        <v>0.452</v>
+        <v>0.397</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.452</v>
+        <v>0.397</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1197,33 +1262,36 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.255</v>
+        <v>0.291</v>
       </c>
       <c r="E22" t="n">
-        <v>0.333</v>
+        <v>0.389</v>
       </c>
       <c r="F22" t="n">
-        <v>0.304</v>
+        <v>0.374</v>
       </c>
       <c r="G22" t="n">
-        <v>0.333</v>
+        <v>0.389</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.333</v>
+        <v>0.389</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1232,33 +1300,36 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.168</v>
+        <v>0.387</v>
       </c>
       <c r="E23" t="n">
-        <v>0.304</v>
+        <v>0.452</v>
       </c>
       <c r="F23" t="n">
-        <v>0.223</v>
+        <v>0.443</v>
       </c>
       <c r="G23" t="n">
-        <v>0.304</v>
+        <v>0.452</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.302</v>
+        <v>0.452</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1267,33 +1338,36 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.328</v>
+        <v>0.346</v>
       </c>
       <c r="E24" t="n">
-        <v>0.452</v>
+        <v>0.444</v>
       </c>
       <c r="F24" t="n">
-        <v>0.401</v>
+        <v>0.411</v>
       </c>
       <c r="G24" t="n">
-        <v>0.452</v>
+        <v>0.444</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0.444</v>
       </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1302,33 +1376,36 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.333</v>
+        <v>0.305</v>
       </c>
       <c r="E25" t="n">
-        <v>0.413</v>
+        <v>0.341</v>
       </c>
       <c r="F25" t="n">
-        <v>0.374</v>
+        <v>0.328</v>
       </c>
       <c r="G25" t="n">
-        <v>0.413</v>
+        <v>0.341</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.413</v>
+        <v>0.341</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,28 +1414,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.26</v>
+        <v>0.305</v>
       </c>
       <c r="E26" t="n">
-        <v>0.349</v>
+        <v>0.429</v>
       </c>
       <c r="F26" t="n">
-        <v>0.296</v>
+        <v>0.384</v>
       </c>
       <c r="G26" t="n">
-        <v>0.349</v>
+        <v>0.429</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.349</v>
+        <v>0.429</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1372,33 +1452,36 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.255</v>
+        <v>0.283</v>
       </c>
       <c r="E27" t="n">
-        <v>0.357</v>
+        <v>0.389</v>
       </c>
       <c r="F27" t="n">
-        <v>0.322</v>
+        <v>0.363</v>
       </c>
       <c r="G27" t="n">
-        <v>0.357</v>
+        <v>0.389</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.357</v>
+        <v>0.389</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1407,33 +1490,36 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="E28" t="n">
-        <v>0.44</v>
+        <v>0.421</v>
       </c>
       <c r="F28" t="n">
-        <v>0.37</v>
+        <v>0.379</v>
       </c>
       <c r="G28" t="n">
-        <v>0.44</v>
+        <v>0.421</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.437</v>
+        <v>0.421</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1445,30 +1531,33 @@
         <v>0.299</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="F29" t="n">
-        <v>0.339</v>
+        <v>0.384</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.397</v>
+        <v>0.405</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1477,33 +1566,36 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.281</v>
+        <v>0.318</v>
       </c>
       <c r="E30" t="n">
-        <v>0.357</v>
+        <v>0.429</v>
       </c>
       <c r="F30" t="n">
-        <v>0.327</v>
+        <v>0.392</v>
       </c>
       <c r="G30" t="n">
-        <v>0.357</v>
+        <v>0.429</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.357</v>
+        <v>0.429</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1512,33 +1604,36 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.333</v>
+        <v>0.283</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4</v>
+        <v>0.341</v>
       </c>
       <c r="F31" t="n">
-        <v>0.387</v>
+        <v>0.323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>0.341</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.397</v>
+        <v>0.341</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1547,33 +1642,36 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.18</v>
+        <v>0.358</v>
       </c>
       <c r="E32" t="n">
-        <v>0.25</v>
+        <v>0.429</v>
       </c>
       <c r="F32" t="n">
-        <v>0.169</v>
+        <v>0.403</v>
       </c>
       <c r="G32" t="n">
-        <v>0.25</v>
+        <v>0.429</v>
       </c>
       <c r="H32" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.048</v>
+        <v>0.429</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1582,33 +1680,36 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.302</v>
+        <v>0.399</v>
       </c>
       <c r="E33" t="n">
-        <v>0.368</v>
+        <v>0.488</v>
       </c>
       <c r="F33" t="n">
-        <v>0.351</v>
+        <v>0.468</v>
       </c>
       <c r="G33" t="n">
-        <v>0.368</v>
+        <v>0.488</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>0.365</v>
+        <v>0.476</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1617,28 +1718,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.211</v>
+        <v>0.398</v>
       </c>
       <c r="E34" t="n">
-        <v>0.328</v>
+        <v>0.492</v>
       </c>
       <c r="F34" t="n">
-        <v>0.278</v>
+        <v>0.465</v>
       </c>
       <c r="G34" t="n">
-        <v>0.328</v>
+        <v>0.492</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0.325</v>
+        <v>0.484</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1652,33 +1756,36 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.164</v>
+        <v>0.292</v>
       </c>
       <c r="E35" t="n">
-        <v>0.264</v>
+        <v>0.373</v>
       </c>
       <c r="F35" t="n">
-        <v>0.214</v>
+        <v>0.353</v>
       </c>
       <c r="G35" t="n">
-        <v>0.264</v>
+        <v>0.373</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.262</v>
+        <v>0.373</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1687,22 +1794,25 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.319</v>
+        <v>0.273</v>
       </c>
       <c r="E36" t="n">
-        <v>0.468</v>
+        <v>0.357</v>
       </c>
       <c r="F36" t="n">
-        <v>0.402</v>
+        <v>0.353</v>
       </c>
       <c r="G36" t="n">
-        <v>0.468</v>
+        <v>0.357</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.468</v>
+        <v>0.357</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1713,7 +1823,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1722,28 +1832,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.398</v>
+        <v>0.333</v>
       </c>
       <c r="E37" t="n">
-        <v>0.492</v>
+        <v>0.413</v>
       </c>
       <c r="F37" t="n">
-        <v>0.465</v>
+        <v>0.374</v>
       </c>
       <c r="G37" t="n">
-        <v>0.492</v>
+        <v>0.413</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.484</v>
+        <v>0.413</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1757,33 +1870,36 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.149</v>
+        <v>0.204</v>
       </c>
       <c r="E38" t="n">
-        <v>0.302</v>
+        <v>0.294</v>
       </c>
       <c r="F38" t="n">
-        <v>0.226</v>
+        <v>0.261</v>
       </c>
       <c r="G38" t="n">
-        <v>0.302</v>
+        <v>0.294</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.302</v>
+        <v>0.294</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1792,22 +1908,25 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.277</v>
+        <v>0.312</v>
       </c>
       <c r="E39" t="n">
-        <v>0.365</v>
+        <v>0.413</v>
       </c>
       <c r="F39" t="n">
-        <v>0.321</v>
+        <v>0.402</v>
       </c>
       <c r="G39" t="n">
-        <v>0.365</v>
+        <v>0.413</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.365</v>
+        <v>0.413</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1827,33 +1946,36 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.356</v>
+        <v>0.319</v>
       </c>
       <c r="E40" t="n">
-        <v>0.488</v>
+        <v>0.468</v>
       </c>
       <c r="F40" t="n">
-        <v>0.423</v>
+        <v>0.402</v>
       </c>
       <c r="G40" t="n">
-        <v>0.488</v>
+        <v>0.468</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.484</v>
+        <v>0.468</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1862,33 +1984,36 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.399</v>
+        <v>0.255</v>
       </c>
       <c r="E41" t="n">
-        <v>0.488</v>
+        <v>0.357</v>
       </c>
       <c r="F41" t="n">
-        <v>0.468</v>
+        <v>0.322</v>
       </c>
       <c r="G41" t="n">
-        <v>0.488</v>
+        <v>0.357</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.476</v>
+        <v>0.357</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1897,33 +2022,36 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.245</v>
+        <v>0.333</v>
       </c>
       <c r="E42" t="n">
-        <v>0.349</v>
+        <v>0.448</v>
       </c>
       <c r="F42" t="n">
-        <v>0.328</v>
+        <v>0.403</v>
       </c>
       <c r="G42" t="n">
-        <v>0.349</v>
+        <v>0.448</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.349</v>
+        <v>0.444</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1932,28 +2060,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.179</v>
+        <v>0.328</v>
       </c>
       <c r="E43" t="n">
-        <v>0.312</v>
+        <v>0.452</v>
       </c>
       <c r="F43" t="n">
-        <v>0.261</v>
+        <v>0.401</v>
       </c>
       <c r="G43" t="n">
-        <v>0.312</v>
+        <v>0.452</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0.31</v>
+        <v>0.444</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1967,33 +2098,36 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.284</v>
+        <v>0.356</v>
       </c>
       <c r="E44" t="n">
-        <v>0.365</v>
+        <v>0.488</v>
       </c>
       <c r="F44" t="n">
-        <v>0.315</v>
+        <v>0.423</v>
       </c>
       <c r="G44" t="n">
-        <v>0.365</v>
+        <v>0.488</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.365</v>
+        <v>0.484</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2002,33 +2136,36 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.204</v>
+        <v>0.314</v>
       </c>
       <c r="E45" t="n">
-        <v>0.294</v>
+        <v>0.373</v>
       </c>
       <c r="F45" t="n">
-        <v>0.261</v>
+        <v>0.362</v>
       </c>
       <c r="G45" t="n">
-        <v>0.294</v>
+        <v>0.373</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.294</v>
+        <v>0.373</v>
+      </c>
+      <c r="J45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2037,33 +2174,36 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.301</v>
+        <v>0.319</v>
       </c>
       <c r="E46" t="n">
-        <v>0.416</v>
+        <v>0.427</v>
       </c>
       <c r="F46" t="n">
-        <v>0.356</v>
+        <v>0.382</v>
       </c>
       <c r="G46" t="n">
-        <v>0.416</v>
+        <v>0.427</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0.413</v>
+        <v>0.421</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2072,28 +2212,31 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.269</v>
+        <v>0.179</v>
       </c>
       <c r="E47" t="n">
-        <v>0.39</v>
+        <v>0.312</v>
       </c>
       <c r="F47" t="n">
-        <v>0.319</v>
+        <v>0.261</v>
       </c>
       <c r="G47" t="n">
-        <v>0.39</v>
+        <v>0.312</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.381</v>
+        <v>0.31</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2107,28 +2250,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.276</v>
+        <v>0.302</v>
       </c>
       <c r="E48" t="n">
-        <v>0.365</v>
+        <v>0.431</v>
       </c>
       <c r="F48" t="n">
-        <v>0.326</v>
+        <v>0.381</v>
       </c>
       <c r="G48" t="n">
-        <v>0.365</v>
+        <v>0.431</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>0.365</v>
+        <v>0.421</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2142,28 +2288,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.359</v>
+        <v>0.343</v>
       </c>
       <c r="E49" t="n">
-        <v>0.416</v>
+        <v>0.468</v>
       </c>
       <c r="F49" t="n">
-        <v>0.405</v>
+        <v>0.41</v>
       </c>
       <c r="G49" t="n">
-        <v>0.416</v>
+        <v>0.468</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.413</v>
+        <v>0.468</v>
+      </c>
+      <c r="J49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2177,33 +2326,36 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.105</v>
+        <v>0.211</v>
       </c>
       <c r="E50" t="n">
-        <v>0.231</v>
+        <v>0.328</v>
       </c>
       <c r="F50" t="n">
-        <v>0.163</v>
+        <v>0.278</v>
       </c>
       <c r="G50" t="n">
-        <v>0.231</v>
+        <v>0.328</v>
       </c>
       <c r="H50" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.048</v>
+        <v>0.325</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2212,33 +2364,36 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="E51" t="n">
-        <v>0.471</v>
+        <v>0.48</v>
       </c>
       <c r="F51" t="n">
-        <v>0.425</v>
+        <v>0.421</v>
       </c>
       <c r="G51" t="n">
-        <v>0.471</v>
+        <v>0.48</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.452</v>
+        <v>0.476</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2247,33 +2402,36 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.271</v>
+        <v>0.346</v>
       </c>
       <c r="E52" t="n">
-        <v>0.349</v>
+        <v>0.471</v>
       </c>
       <c r="F52" t="n">
-        <v>0.331</v>
+        <v>0.425</v>
       </c>
       <c r="G52" t="n">
-        <v>0.349</v>
+        <v>0.471</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2282,33 +2440,36 @@
         </is>
       </c>
       <c r="D53" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.371</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.43</v>
-      </c>
       <c r="G53" t="n">
-        <v>0.444</v>
+        <v>0.381</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.444</v>
+        <v>0.381</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2317,28 +2478,31 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.169</v>
+        <v>0.312</v>
       </c>
       <c r="E54" t="n">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="F54" t="n">
-        <v>0.237</v>
+        <v>0.37</v>
       </c>
       <c r="G54" t="n">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.31</v>
+        <v>0.437</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2352,33 +2516,36 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.333</v>
+        <v>0.369</v>
       </c>
       <c r="E55" t="n">
-        <v>0.448</v>
+        <v>0.463</v>
       </c>
       <c r="F55" t="n">
-        <v>0.403</v>
+        <v>0.431</v>
       </c>
       <c r="G55" t="n">
-        <v>0.448</v>
+        <v>0.463</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>0.444</v>
+        <v>0.452</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2387,33 +2554,36 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.358</v>
+        <v>0.164</v>
       </c>
       <c r="E56" t="n">
-        <v>0.429</v>
+        <v>0.264</v>
       </c>
       <c r="F56" t="n">
-        <v>0.403</v>
+        <v>0.214</v>
       </c>
       <c r="G56" t="n">
-        <v>0.429</v>
+        <v>0.264</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.429</v>
+        <v>0.262</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2422,33 +2592,36 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.299</v>
+        <v>0.301</v>
       </c>
       <c r="E57" t="n">
-        <v>0.397</v>
+        <v>0.416</v>
       </c>
       <c r="F57" t="n">
-        <v>0.383</v>
+        <v>0.356</v>
       </c>
       <c r="G57" t="n">
-        <v>0.397</v>
+        <v>0.416</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.397</v>
+        <v>0.413</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>promptN01</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2457,28 +2630,31 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.394</v>
+        <v>0.149</v>
       </c>
       <c r="E58" t="n">
-        <v>0.46</v>
+        <v>0.302</v>
       </c>
       <c r="F58" t="n">
-        <v>0.442</v>
+        <v>0.226</v>
       </c>
       <c r="G58" t="n">
-        <v>0.46</v>
+        <v>0.302</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.46</v>
+        <v>0.302</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2492,33 +2668,36 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.346</v>
+        <v>0.289</v>
       </c>
       <c r="E59" t="n">
-        <v>0.444</v>
+        <v>0.427</v>
       </c>
       <c r="F59" t="n">
-        <v>0.411</v>
+        <v>0.36</v>
       </c>
       <c r="G59" t="n">
-        <v>0.444</v>
+        <v>0.427</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0.444</v>
+        <v>0.421</v>
+      </c>
+      <c r="J59" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2527,33 +2706,36 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.305</v>
+        <v>0.169</v>
       </c>
       <c r="E60" t="n">
-        <v>0.429</v>
+        <v>0.31</v>
       </c>
       <c r="F60" t="n">
-        <v>0.384</v>
+        <v>0.237</v>
       </c>
       <c r="G60" t="n">
-        <v>0.429</v>
+        <v>0.31</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.429</v>
+        <v>0.31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2562,33 +2744,36 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="E61" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F61" t="n">
-        <v>0.416</v>
+        <v>0.403</v>
       </c>
       <c r="G61" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I61" t="n">
-        <v>0.437</v>
+        <v>0.429</v>
+      </c>
+      <c r="J61" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2597,22 +2782,25 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.283</v>
+        <v>0.361</v>
       </c>
       <c r="E62" t="n">
-        <v>0.389</v>
+        <v>0.455</v>
       </c>
       <c r="F62" t="n">
-        <v>0.363</v>
+        <v>0.415</v>
       </c>
       <c r="G62" t="n">
-        <v>0.389</v>
+        <v>0.455</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>0.389</v>
+        <v>0.444</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -2623,7 +2811,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2632,33 +2820,36 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.289</v>
+        <v>0.319</v>
       </c>
       <c r="E63" t="n">
-        <v>0.427</v>
+        <v>0.389</v>
       </c>
       <c r="F63" t="n">
-        <v>0.36</v>
+        <v>0.376</v>
       </c>
       <c r="G63" t="n">
-        <v>0.427</v>
+        <v>0.389</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.421</v>
+        <v>0.389</v>
+      </c>
+      <c r="J63" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2667,28 +2858,31 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.292</v>
+        <v>0.284</v>
       </c>
       <c r="E64" t="n">
-        <v>0.373</v>
+        <v>0.415</v>
       </c>
       <c r="F64" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="G64" t="n">
-        <v>0.373</v>
+        <v>0.415</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>0.373</v>
+        <v>0.405</v>
+      </c>
+      <c r="J64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2702,33 +2896,36 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.132</v>
+        <v>0.168</v>
       </c>
       <c r="E65" t="n">
-        <v>0.254</v>
+        <v>0.304</v>
       </c>
       <c r="F65" t="n">
-        <v>0.202</v>
+        <v>0.223</v>
       </c>
       <c r="G65" t="n">
-        <v>0.254</v>
+        <v>0.304</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.254</v>
+        <v>0.302</v>
+      </c>
+      <c r="J65" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2737,33 +2934,36 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.241</v>
+        <v>0.315</v>
       </c>
       <c r="E66" t="n">
-        <v>0.333</v>
+        <v>0.433</v>
       </c>
       <c r="F66" t="n">
-        <v>0.297</v>
+        <v>0.39</v>
       </c>
       <c r="G66" t="n">
-        <v>0.333</v>
+        <v>0.433</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>0.333</v>
+        <v>0.413</v>
+      </c>
+      <c r="J66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2772,33 +2972,36 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.339</v>
+        <v>0.128</v>
       </c>
       <c r="E67" t="n">
-        <v>0.45</v>
+        <v>0.248</v>
       </c>
       <c r="F67" t="n">
-        <v>0.403</v>
+        <v>0.2</v>
       </c>
       <c r="G67" t="n">
-        <v>0.45</v>
+        <v>0.248</v>
       </c>
       <c r="H67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.429</v>
+        <v>0.246</v>
+      </c>
+      <c r="J67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2807,33 +3010,36 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.353</v>
+        <v>0.132</v>
       </c>
       <c r="E68" t="n">
-        <v>0.48</v>
+        <v>0.254</v>
       </c>
       <c r="F68" t="n">
-        <v>0.421</v>
+        <v>0.202</v>
       </c>
       <c r="G68" t="n">
-        <v>0.48</v>
+        <v>0.254</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.476</v>
+        <v>0.254</v>
+      </c>
+      <c r="J68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2842,33 +3048,36 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.38</v>
+        <v>0.251</v>
       </c>
       <c r="E69" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="F69" t="n">
-        <v>0.445</v>
+        <v>0.332</v>
       </c>
       <c r="G69" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
+      </c>
+      <c r="J69" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2877,33 +3086,36 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.255</v>
+        <v>0.33</v>
       </c>
       <c r="E70" t="n">
-        <v>0.357</v>
+        <v>0.434</v>
       </c>
       <c r="F70" t="n">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="G70" t="n">
-        <v>0.357</v>
+        <v>0.434</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>0.357</v>
+        <v>0.421</v>
+      </c>
+      <c r="J70" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2912,33 +3124,36 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.283</v>
+        <v>0.299</v>
       </c>
       <c r="E71" t="n">
-        <v>0.373</v>
+        <v>0.4</v>
       </c>
       <c r="F71" t="n">
-        <v>0.358</v>
+        <v>0.339</v>
       </c>
       <c r="G71" t="n">
-        <v>0.373</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.373</v>
+        <v>0.397</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2947,57 +3162,481 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.302</v>
+        <v>0.269</v>
       </c>
       <c r="E72" t="n">
-        <v>0.431</v>
+        <v>0.39</v>
       </c>
       <c r="F72" t="n">
-        <v>0.381</v>
+        <v>0.319</v>
       </c>
       <c r="G72" t="n">
-        <v>0.431</v>
+        <v>0.39</v>
       </c>
       <c r="H72" t="n">
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>0.421</v>
+        <v>0.381</v>
+      </c>
+      <c r="J72" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="H73" t="n">
+        <v>100</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H74" t="n">
+        <v>102</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J74" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>level2</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.421</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="J75" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J76" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J77" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J80" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="J82" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J84" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
+++ b/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.394</v>
+        <v>0.286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.46</v>
+        <v>0.357</v>
       </c>
       <c r="F2" t="n">
-        <v>0.442</v>
+        <v>0.326</v>
       </c>
       <c r="G2" t="n">
-        <v>0.46</v>
+        <v>0.357</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.46</v>
+        <v>0.357</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,22 +540,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
       <c r="E3" t="n">
-        <v>0.302</v>
+        <v>0.349</v>
       </c>
       <c r="F3" t="n">
-        <v>0.298</v>
+        <v>0.328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.302</v>
+        <v>0.349</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.302</v>
+        <v>0.349</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -578,22 +578,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.271</v>
+        <v>0.394</v>
       </c>
       <c r="E4" t="n">
-        <v>0.349</v>
+        <v>0.46</v>
       </c>
       <c r="F4" t="n">
-        <v>0.331</v>
+        <v>0.442</v>
       </c>
       <c r="G4" t="n">
-        <v>0.349</v>
+        <v>0.46</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.349</v>
+        <v>0.46</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.255</v>
+        <v>0.244</v>
       </c>
       <c r="E5" t="n">
-        <v>0.333</v>
+        <v>0.349</v>
       </c>
       <c r="F5" t="n">
-        <v>0.304</v>
+        <v>0.322</v>
       </c>
       <c r="G5" t="n">
-        <v>0.333</v>
+        <v>0.349</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.333</v>
+        <v>0.349</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,22 +654,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.271</v>
+        <v>0.397</v>
       </c>
       <c r="E6" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
       </c>
       <c r="F6" t="n">
-        <v>0.335</v>
+        <v>0.432</v>
       </c>
       <c r="G6" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.245</v>
+        <v>0.255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.328</v>
+        <v>0.304</v>
       </c>
       <c r="G7" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -768,22 +768,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.397</v>
+        <v>0.271</v>
       </c>
       <c r="E9" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="F9" t="n">
-        <v>0.432</v>
+        <v>0.331</v>
       </c>
       <c r="G9" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -792,12 +792,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -806,25 +806,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.333</v>
+        <v>0.248</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4</v>
+        <v>0.302</v>
       </c>
       <c r="F10" t="n">
-        <v>0.387</v>
+        <v>0.298</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.302</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -835,7 +835,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.335</v>
+        <v>0.359</v>
       </c>
       <c r="E11" t="n">
-        <v>0.381</v>
+        <v>0.416</v>
       </c>
       <c r="F11" t="n">
-        <v>0.36</v>
+        <v>0.405</v>
       </c>
       <c r="G11" t="n">
-        <v>0.381</v>
+        <v>0.416</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.381</v>
+        <v>0.413</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.38</v>
+        <v>0.333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.452</v>
+        <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.445</v>
+        <v>0.387</v>
       </c>
       <c r="G12" t="n">
-        <v>0.452</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.452</v>
+        <v>0.397</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -911,7 +911,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -920,22 +920,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.267</v>
+        <v>0.329</v>
       </c>
       <c r="E13" t="n">
-        <v>0.365</v>
+        <v>0.413</v>
       </c>
       <c r="F13" t="n">
-        <v>0.359</v>
+        <v>0.392</v>
       </c>
       <c r="G13" t="n">
-        <v>0.365</v>
+        <v>0.413</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.365</v>
+        <v>0.413</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
@@ -949,7 +949,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -958,22 +958,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.283</v>
+        <v>0.38</v>
       </c>
       <c r="E14" t="n">
-        <v>0.373</v>
+        <v>0.452</v>
       </c>
       <c r="F14" t="n">
-        <v>0.358</v>
+        <v>0.445</v>
       </c>
       <c r="G14" t="n">
-        <v>0.373</v>
+        <v>0.452</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.373</v>
+        <v>0.452</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -996,22 +996,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.359</v>
+        <v>0.283</v>
       </c>
       <c r="E15" t="n">
-        <v>0.416</v>
+        <v>0.373</v>
       </c>
       <c r="F15" t="n">
-        <v>0.405</v>
+        <v>0.358</v>
       </c>
       <c r="G15" t="n">
-        <v>0.416</v>
+        <v>0.373</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.413</v>
+        <v>0.373</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -1058,12 +1058,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1072,36 +1072,36 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.305</v>
+        <v>0.341</v>
       </c>
       <c r="E17" t="n">
-        <v>0.341</v>
+        <v>0.421</v>
       </c>
       <c r="F17" t="n">
-        <v>0.352</v>
+        <v>0.398</v>
       </c>
       <c r="G17" t="n">
-        <v>0.341</v>
+        <v>0.421</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.341</v>
+        <v>0.421</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1110,36 +1110,36 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="E18" t="n">
-        <v>0.44</v>
+        <v>0.381</v>
       </c>
       <c r="F18" t="n">
-        <v>0.416</v>
+        <v>0.36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.44</v>
+        <v>0.381</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.437</v>
+        <v>0.381</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1148,25 +1148,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.371</v>
+        <v>0.267</v>
       </c>
       <c r="E19" t="n">
-        <v>0.444</v>
+        <v>0.365</v>
       </c>
       <c r="F19" t="n">
-        <v>0.43</v>
+        <v>0.359</v>
       </c>
       <c r="G19" t="n">
-        <v>0.444</v>
+        <v>0.365</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.444</v>
+        <v>0.365</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1186,22 +1186,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.358</v>
+        <v>0.387</v>
       </c>
       <c r="E20" t="n">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
       <c r="F20" t="n">
-        <v>0.422</v>
+        <v>0.443</v>
       </c>
       <c r="G20" t="n">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.444</v>
+        <v>0.452</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1224,22 +1224,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.299</v>
+        <v>0.305</v>
       </c>
       <c r="E21" t="n">
-        <v>0.397</v>
+        <v>0.341</v>
       </c>
       <c r="F21" t="n">
-        <v>0.383</v>
+        <v>0.352</v>
       </c>
       <c r="G21" t="n">
-        <v>0.397</v>
+        <v>0.341</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.397</v>
+        <v>0.341</v>
       </c>
       <c r="J21" t="n">
         <v>3</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1262,22 +1262,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.291</v>
+        <v>0.34</v>
       </c>
       <c r="E22" t="n">
-        <v>0.389</v>
+        <v>0.44</v>
       </c>
       <c r="F22" t="n">
-        <v>0.374</v>
+        <v>0.416</v>
       </c>
       <c r="G22" t="n">
-        <v>0.389</v>
+        <v>0.44</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.389</v>
+        <v>0.437</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.387</v>
+        <v>0.291</v>
       </c>
       <c r="E23" t="n">
-        <v>0.452</v>
+        <v>0.389</v>
       </c>
       <c r="F23" t="n">
-        <v>0.443</v>
+        <v>0.374</v>
       </c>
       <c r="G23" t="n">
-        <v>0.452</v>
+        <v>0.389</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.452</v>
+        <v>0.389</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -1324,7 +1324,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1338,36 +1338,36 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.346</v>
+        <v>0.358</v>
       </c>
       <c r="E24" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="F24" t="n">
-        <v>0.411</v>
+        <v>0.422</v>
       </c>
       <c r="G24" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0.444</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1376,36 +1376,36 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.305</v>
+        <v>0.371</v>
       </c>
       <c r="E25" t="n">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="F25" t="n">
-        <v>0.328</v>
+        <v>0.43</v>
       </c>
       <c r="G25" t="n">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1414,31 +1414,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.305</v>
+        <v>0.355</v>
       </c>
       <c r="E26" t="n">
-        <v>0.429</v>
+        <v>0.464</v>
       </c>
       <c r="F26" t="n">
-        <v>0.384</v>
+        <v>0.44</v>
       </c>
       <c r="G26" t="n">
-        <v>0.429</v>
+        <v>0.464</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.429</v>
+        <v>0.46</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1452,36 +1452,36 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.283</v>
+        <v>0.299</v>
       </c>
       <c r="E27" t="n">
-        <v>0.389</v>
+        <v>0.397</v>
       </c>
       <c r="F27" t="n">
-        <v>0.363</v>
+        <v>0.383</v>
       </c>
       <c r="G27" t="n">
-        <v>0.389</v>
+        <v>0.397</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.389</v>
+        <v>0.397</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1490,25 +1490,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.313</v>
+        <v>0.367</v>
       </c>
       <c r="E28" t="n">
-        <v>0.421</v>
+        <v>0.464</v>
       </c>
       <c r="F28" t="n">
-        <v>0.379</v>
+        <v>0.451</v>
       </c>
       <c r="G28" t="n">
-        <v>0.421</v>
+        <v>0.464</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.421</v>
+        <v>0.46</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1528,22 +1528,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.299</v>
+        <v>0.305</v>
       </c>
       <c r="E29" t="n">
-        <v>0.405</v>
+        <v>0.341</v>
       </c>
       <c r="F29" t="n">
-        <v>0.384</v>
+        <v>0.328</v>
       </c>
       <c r="G29" t="n">
-        <v>0.405</v>
+        <v>0.341</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.405</v>
+        <v>0.341</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -1590,12 +1590,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1604,36 +1604,36 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.283</v>
+        <v>0.346</v>
       </c>
       <c r="E31" t="n">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="F31" t="n">
-        <v>0.323</v>
+        <v>0.411</v>
       </c>
       <c r="G31" t="n">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1642,36 +1642,36 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.358</v>
+        <v>0.313</v>
       </c>
       <c r="E32" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="F32" t="n">
-        <v>0.403</v>
+        <v>0.379</v>
       </c>
       <c r="G32" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1680,36 +1680,36 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.399</v>
+        <v>0.283</v>
       </c>
       <c r="E33" t="n">
-        <v>0.488</v>
+        <v>0.389</v>
       </c>
       <c r="F33" t="n">
-        <v>0.468</v>
+        <v>0.363</v>
       </c>
       <c r="G33" t="n">
-        <v>0.488</v>
+        <v>0.389</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.476</v>
+        <v>0.389</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1718,36 +1718,36 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.398</v>
+        <v>0.299</v>
       </c>
       <c r="E34" t="n">
-        <v>0.492</v>
+        <v>0.405</v>
       </c>
       <c r="F34" t="n">
-        <v>0.465</v>
+        <v>0.384</v>
       </c>
       <c r="G34" t="n">
-        <v>0.492</v>
+        <v>0.405</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.484</v>
+        <v>0.405</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1756,36 +1756,36 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.292</v>
+        <v>0.349</v>
       </c>
       <c r="E35" t="n">
-        <v>0.373</v>
+        <v>0.452</v>
       </c>
       <c r="F35" t="n">
-        <v>0.353</v>
+        <v>0.431</v>
       </c>
       <c r="G35" t="n">
-        <v>0.373</v>
+        <v>0.452</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.373</v>
+        <v>0.452</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1794,36 +1794,36 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.273</v>
+        <v>0.326</v>
       </c>
       <c r="E36" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="F36" t="n">
-        <v>0.353</v>
+        <v>0.403</v>
       </c>
       <c r="G36" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1832,36 +1832,36 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.333</v>
+        <v>0.305</v>
       </c>
       <c r="E37" t="n">
-        <v>0.413</v>
+        <v>0.429</v>
       </c>
       <c r="F37" t="n">
-        <v>0.374</v>
+        <v>0.384</v>
       </c>
       <c r="G37" t="n">
-        <v>0.413</v>
+        <v>0.429</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.413</v>
+        <v>0.429</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1870,36 +1870,36 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.204</v>
+        <v>0.399</v>
       </c>
       <c r="E38" t="n">
-        <v>0.294</v>
+        <v>0.488</v>
       </c>
       <c r="F38" t="n">
-        <v>0.261</v>
+        <v>0.468</v>
       </c>
       <c r="G38" t="n">
-        <v>0.294</v>
+        <v>0.488</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>0.294</v>
+        <v>0.476</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1908,36 +1908,36 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.312</v>
+        <v>0.358</v>
       </c>
       <c r="E39" t="n">
-        <v>0.413</v>
+        <v>0.429</v>
       </c>
       <c r="F39" t="n">
-        <v>0.402</v>
+        <v>0.403</v>
       </c>
       <c r="G39" t="n">
-        <v>0.413</v>
+        <v>0.429</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.413</v>
+        <v>0.429</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1946,36 +1946,36 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.319</v>
+        <v>0.398</v>
       </c>
       <c r="E40" t="n">
-        <v>0.468</v>
+        <v>0.492</v>
       </c>
       <c r="F40" t="n">
-        <v>0.402</v>
+        <v>0.465</v>
       </c>
       <c r="G40" t="n">
-        <v>0.468</v>
+        <v>0.492</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0.468</v>
+        <v>0.484</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1984,36 +1984,36 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.255</v>
+        <v>0.333</v>
       </c>
       <c r="E41" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="F41" t="n">
-        <v>0.322</v>
+        <v>0.374</v>
       </c>
       <c r="G41" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2022,36 +2022,36 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.333</v>
+        <v>0.273</v>
       </c>
       <c r="E42" t="n">
-        <v>0.448</v>
+        <v>0.357</v>
       </c>
       <c r="F42" t="n">
-        <v>0.403</v>
+        <v>0.353</v>
       </c>
       <c r="G42" t="n">
-        <v>0.448</v>
+        <v>0.357</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.444</v>
+        <v>0.357</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2060,36 +2060,36 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.328</v>
+        <v>0.283</v>
       </c>
       <c r="E43" t="n">
-        <v>0.452</v>
+        <v>0.341</v>
       </c>
       <c r="F43" t="n">
-        <v>0.401</v>
+        <v>0.323</v>
       </c>
       <c r="G43" t="n">
-        <v>0.452</v>
+        <v>0.341</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.444</v>
+        <v>0.341</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2098,36 +2098,36 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.356</v>
+        <v>0.292</v>
       </c>
       <c r="E44" t="n">
-        <v>0.488</v>
+        <v>0.373</v>
       </c>
       <c r="F44" t="n">
-        <v>0.423</v>
+        <v>0.353</v>
       </c>
       <c r="G44" t="n">
-        <v>0.488</v>
+        <v>0.373</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.484</v>
+        <v>0.373</v>
       </c>
       <c r="J44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2136,36 +2136,36 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.314</v>
+        <v>0.358</v>
       </c>
       <c r="E45" t="n">
-        <v>0.373</v>
+        <v>0.421</v>
       </c>
       <c r="F45" t="n">
-        <v>0.362</v>
+        <v>0.405</v>
       </c>
       <c r="G45" t="n">
-        <v>0.373</v>
+        <v>0.421</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.373</v>
+        <v>0.421</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2174,31 +2174,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.319</v>
+        <v>0.372</v>
       </c>
       <c r="E46" t="n">
-        <v>0.427</v>
+        <v>0.437</v>
       </c>
       <c r="F46" t="n">
-        <v>0.382</v>
+        <v>0.419</v>
       </c>
       <c r="G46" t="n">
-        <v>0.427</v>
+        <v>0.437</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.421</v>
+        <v>0.437</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2212,31 +2212,31 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.179</v>
+        <v>0.255</v>
       </c>
       <c r="E47" t="n">
-        <v>0.312</v>
+        <v>0.357</v>
       </c>
       <c r="F47" t="n">
-        <v>0.261</v>
+        <v>0.322</v>
       </c>
       <c r="G47" t="n">
-        <v>0.312</v>
+        <v>0.357</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.31</v>
+        <v>0.357</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2250,36 +2250,36 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.302</v>
+        <v>0.328</v>
       </c>
       <c r="E48" t="n">
-        <v>0.431</v>
+        <v>0.452</v>
       </c>
       <c r="F48" t="n">
-        <v>0.381</v>
+        <v>0.401</v>
       </c>
       <c r="G48" t="n">
-        <v>0.431</v>
+        <v>0.452</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2288,36 +2288,36 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.343</v>
+        <v>0.28</v>
       </c>
       <c r="E49" t="n">
-        <v>0.468</v>
+        <v>0.389</v>
       </c>
       <c r="F49" t="n">
-        <v>0.41</v>
+        <v>0.351</v>
       </c>
       <c r="G49" t="n">
-        <v>0.468</v>
+        <v>0.389</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.468</v>
+        <v>0.389</v>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2326,36 +2326,36 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.211</v>
+        <v>0.333</v>
       </c>
       <c r="E50" t="n">
-        <v>0.328</v>
+        <v>0.448</v>
       </c>
       <c r="F50" t="n">
-        <v>0.278</v>
+        <v>0.403</v>
       </c>
       <c r="G50" t="n">
-        <v>0.328</v>
+        <v>0.448</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.325</v>
+        <v>0.444</v>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2364,36 +2364,36 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.353</v>
+        <v>0.204</v>
       </c>
       <c r="E51" t="n">
-        <v>0.48</v>
+        <v>0.294</v>
       </c>
       <c r="F51" t="n">
-        <v>0.421</v>
+        <v>0.261</v>
       </c>
       <c r="G51" t="n">
-        <v>0.48</v>
+        <v>0.294</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.476</v>
+        <v>0.294</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2402,36 +2402,36 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.346</v>
+        <v>0.264</v>
       </c>
       <c r="E52" t="n">
-        <v>0.471</v>
+        <v>0.373</v>
       </c>
       <c r="F52" t="n">
-        <v>0.425</v>
+        <v>0.332</v>
       </c>
       <c r="G52" t="n">
-        <v>0.471</v>
+        <v>0.373</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.452</v>
+        <v>0.373</v>
       </c>
       <c r="J52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2440,36 +2440,36 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.307</v>
+        <v>0.319</v>
       </c>
       <c r="E53" t="n">
-        <v>0.381</v>
+        <v>0.468</v>
       </c>
       <c r="F53" t="n">
-        <v>0.371</v>
+        <v>0.402</v>
       </c>
       <c r="G53" t="n">
-        <v>0.381</v>
+        <v>0.468</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.381</v>
+        <v>0.468</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2481,33 +2481,33 @@
         <v>0.312</v>
       </c>
       <c r="E54" t="n">
-        <v>0.44</v>
+        <v>0.413</v>
       </c>
       <c r="F54" t="n">
-        <v>0.37</v>
+        <v>0.402</v>
       </c>
       <c r="G54" t="n">
-        <v>0.44</v>
+        <v>0.413</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.437</v>
+        <v>0.413</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2516,31 +2516,31 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.369</v>
+        <v>0.356</v>
       </c>
       <c r="E55" t="n">
-        <v>0.463</v>
+        <v>0.488</v>
       </c>
       <c r="F55" t="n">
-        <v>0.431</v>
+        <v>0.423</v>
       </c>
       <c r="G55" t="n">
-        <v>0.463</v>
+        <v>0.488</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.452</v>
+        <v>0.484</v>
       </c>
       <c r="J55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2554,36 +2554,36 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.164</v>
+        <v>0.179</v>
       </c>
       <c r="E56" t="n">
-        <v>0.264</v>
+        <v>0.312</v>
       </c>
       <c r="F56" t="n">
-        <v>0.214</v>
+        <v>0.261</v>
       </c>
       <c r="G56" t="n">
-        <v>0.264</v>
+        <v>0.312</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.262</v>
+        <v>0.31</v>
       </c>
       <c r="J56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2592,36 +2592,36 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.301</v>
+        <v>0.281</v>
       </c>
       <c r="E57" t="n">
-        <v>0.416</v>
+        <v>0.381</v>
       </c>
       <c r="F57" t="n">
-        <v>0.356</v>
+        <v>0.347</v>
       </c>
       <c r="G57" t="n">
-        <v>0.416</v>
+        <v>0.381</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.413</v>
+        <v>0.381</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2630,36 +2630,36 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.149</v>
+        <v>0.302</v>
       </c>
       <c r="E58" t="n">
-        <v>0.302</v>
+        <v>0.431</v>
       </c>
       <c r="F58" t="n">
-        <v>0.226</v>
+        <v>0.381</v>
       </c>
       <c r="G58" t="n">
-        <v>0.302</v>
+        <v>0.431</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>0.302</v>
+        <v>0.421</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2668,36 +2668,36 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.289</v>
+        <v>0.314</v>
       </c>
       <c r="E59" t="n">
-        <v>0.427</v>
+        <v>0.373</v>
       </c>
       <c r="F59" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="G59" t="n">
-        <v>0.427</v>
+        <v>0.373</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.421</v>
+        <v>0.373</v>
       </c>
       <c r="J59" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2706,36 +2706,36 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.169</v>
+        <v>0.319</v>
       </c>
       <c r="E60" t="n">
-        <v>0.31</v>
+        <v>0.427</v>
       </c>
       <c r="F60" t="n">
-        <v>0.237</v>
+        <v>0.382</v>
       </c>
       <c r="G60" t="n">
-        <v>0.31</v>
+        <v>0.427</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0.31</v>
+        <v>0.421</v>
       </c>
       <c r="J60" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2744,36 +2744,36 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.339</v>
+        <v>0.211</v>
       </c>
       <c r="E61" t="n">
-        <v>0.45</v>
+        <v>0.328</v>
       </c>
       <c r="F61" t="n">
-        <v>0.403</v>
+        <v>0.278</v>
       </c>
       <c r="G61" t="n">
-        <v>0.45</v>
+        <v>0.328</v>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.429</v>
+        <v>0.325</v>
       </c>
       <c r="J61" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2782,36 +2782,36 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.361</v>
+        <v>0.293</v>
       </c>
       <c r="E62" t="n">
-        <v>0.455</v>
+        <v>0.413</v>
       </c>
       <c r="F62" t="n">
-        <v>0.415</v>
+        <v>0.368</v>
       </c>
       <c r="G62" t="n">
-        <v>0.455</v>
+        <v>0.413</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.444</v>
+        <v>0.413</v>
       </c>
       <c r="J62" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2820,31 +2820,31 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.319</v>
+        <v>0.343</v>
       </c>
       <c r="E63" t="n">
-        <v>0.389</v>
+        <v>0.468</v>
       </c>
       <c r="F63" t="n">
-        <v>0.376</v>
+        <v>0.41</v>
       </c>
       <c r="G63" t="n">
-        <v>0.389</v>
+        <v>0.468</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.389</v>
+        <v>0.468</v>
       </c>
       <c r="J63" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2858,36 +2858,36 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.284</v>
+        <v>0.353</v>
       </c>
       <c r="E64" t="n">
-        <v>0.415</v>
+        <v>0.48</v>
       </c>
       <c r="F64" t="n">
-        <v>0.355</v>
+        <v>0.421</v>
       </c>
       <c r="G64" t="n">
-        <v>0.415</v>
+        <v>0.48</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.405</v>
+        <v>0.476</v>
       </c>
       <c r="J64" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2896,36 +2896,36 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.168</v>
+        <v>0.346</v>
       </c>
       <c r="E65" t="n">
-        <v>0.304</v>
+        <v>0.471</v>
       </c>
       <c r="F65" t="n">
-        <v>0.223</v>
+        <v>0.425</v>
       </c>
       <c r="G65" t="n">
-        <v>0.304</v>
+        <v>0.471</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>0.302</v>
+        <v>0.452</v>
       </c>
       <c r="J65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2934,36 +2934,36 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.315</v>
+        <v>0.301</v>
       </c>
       <c r="E66" t="n">
-        <v>0.433</v>
+        <v>0.416</v>
       </c>
       <c r="F66" t="n">
-        <v>0.39</v>
+        <v>0.356</v>
       </c>
       <c r="G66" t="n">
-        <v>0.433</v>
+        <v>0.416</v>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0.413</v>
       </c>
       <c r="J66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2972,31 +2972,31 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.128</v>
+        <v>0.28</v>
       </c>
       <c r="E67" t="n">
-        <v>0.248</v>
+        <v>0.389</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2</v>
+        <v>0.347</v>
       </c>
       <c r="G67" t="n">
-        <v>0.248</v>
+        <v>0.389</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.246</v>
+        <v>0.389</v>
       </c>
       <c r="J67" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3010,36 +3010,36 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.132</v>
+        <v>0.149</v>
       </c>
       <c r="E68" t="n">
-        <v>0.254</v>
+        <v>0.302</v>
       </c>
       <c r="F68" t="n">
-        <v>0.202</v>
+        <v>0.226</v>
       </c>
       <c r="G68" t="n">
-        <v>0.254</v>
+        <v>0.302</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.254</v>
+        <v>0.302</v>
       </c>
       <c r="J68" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3048,36 +3048,36 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.251</v>
+        <v>0.164</v>
       </c>
       <c r="E69" t="n">
-        <v>0.349</v>
+        <v>0.264</v>
       </c>
       <c r="F69" t="n">
-        <v>0.332</v>
+        <v>0.214</v>
       </c>
       <c r="G69" t="n">
-        <v>0.349</v>
+        <v>0.264</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.349</v>
+        <v>0.262</v>
       </c>
       <c r="J69" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3086,36 +3086,36 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.33</v>
+        <v>0.282</v>
       </c>
       <c r="E70" t="n">
-        <v>0.434</v>
+        <v>0.389</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4</v>
+        <v>0.348</v>
       </c>
       <c r="G70" t="n">
-        <v>0.434</v>
+        <v>0.389</v>
       </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.421</v>
+        <v>0.389</v>
       </c>
       <c r="J70" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3124,31 +3124,31 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.299</v>
+        <v>0.369</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4</v>
+        <v>0.463</v>
       </c>
       <c r="F71" t="n">
-        <v>0.339</v>
+        <v>0.431</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>0.463</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>0.397</v>
+        <v>0.452</v>
       </c>
       <c r="J71" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3162,36 +3162,36 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.269</v>
+        <v>0.312</v>
       </c>
       <c r="E72" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="F72" t="n">
-        <v>0.319</v>
+        <v>0.37</v>
       </c>
       <c r="G72" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.381</v>
+        <v>0.437</v>
       </c>
       <c r="J72" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3200,36 +3200,36 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.105</v>
+        <v>0.307</v>
       </c>
       <c r="E73" t="n">
-        <v>0.231</v>
+        <v>0.381</v>
       </c>
       <c r="F73" t="n">
-        <v>0.163</v>
+        <v>0.371</v>
       </c>
       <c r="G73" t="n">
-        <v>0.231</v>
+        <v>0.381</v>
       </c>
       <c r="H73" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.048</v>
+        <v>0.381</v>
       </c>
       <c r="J73" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3238,36 +3238,36 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.18</v>
+        <v>0.289</v>
       </c>
       <c r="E74" t="n">
-        <v>0.25</v>
+        <v>0.427</v>
       </c>
       <c r="F74" t="n">
-        <v>0.169</v>
+        <v>0.36</v>
       </c>
       <c r="G74" t="n">
-        <v>0.25</v>
+        <v>0.427</v>
       </c>
       <c r="H74" t="n">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0.048</v>
+        <v>0.421</v>
       </c>
       <c r="J74" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3276,31 +3276,31 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.241</v>
+        <v>0.266</v>
       </c>
       <c r="E75" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="F75" t="n">
-        <v>0.316</v>
+        <v>0.352</v>
       </c>
       <c r="G75" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="J75" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3314,36 +3314,36 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.277</v>
+        <v>0.339</v>
       </c>
       <c r="E76" t="n">
-        <v>0.365</v>
+        <v>0.45</v>
       </c>
       <c r="F76" t="n">
-        <v>0.321</v>
+        <v>0.403</v>
       </c>
       <c r="G76" t="n">
-        <v>0.365</v>
+        <v>0.45</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>0.365</v>
+        <v>0.429</v>
       </c>
       <c r="J76" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3352,31 +3352,31 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.284</v>
+        <v>0.361</v>
       </c>
       <c r="E77" t="n">
-        <v>0.365</v>
+        <v>0.455</v>
       </c>
       <c r="F77" t="n">
-        <v>0.315</v>
+        <v>0.415</v>
       </c>
       <c r="G77" t="n">
-        <v>0.365</v>
+        <v>0.455</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>0.365</v>
+        <v>0.444</v>
       </c>
       <c r="J77" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3390,36 +3390,36 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.26</v>
+        <v>0.284</v>
       </c>
       <c r="E78" t="n">
-        <v>0.349</v>
+        <v>0.415</v>
       </c>
       <c r="F78" t="n">
-        <v>0.296</v>
+        <v>0.355</v>
       </c>
       <c r="G78" t="n">
-        <v>0.349</v>
+        <v>0.415</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>0.349</v>
+        <v>0.405</v>
       </c>
       <c r="J78" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3428,36 +3428,36 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.281</v>
+        <v>0.169</v>
       </c>
       <c r="E79" t="n">
-        <v>0.357</v>
+        <v>0.31</v>
       </c>
       <c r="F79" t="n">
-        <v>0.327</v>
+        <v>0.237</v>
       </c>
       <c r="G79" t="n">
-        <v>0.357</v>
+        <v>0.31</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.357</v>
+        <v>0.31</v>
       </c>
       <c r="J79" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3466,36 +3466,36 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.241</v>
+        <v>0.319</v>
       </c>
       <c r="E80" t="n">
-        <v>0.333</v>
+        <v>0.389</v>
       </c>
       <c r="F80" t="n">
-        <v>0.297</v>
+        <v>0.376</v>
       </c>
       <c r="G80" t="n">
-        <v>0.333</v>
+        <v>0.389</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.333</v>
+        <v>0.389</v>
       </c>
       <c r="J80" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3504,36 +3504,36 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.22</v>
+        <v>0.263</v>
       </c>
       <c r="E81" t="n">
-        <v>0.317</v>
+        <v>0.397</v>
       </c>
       <c r="F81" t="n">
-        <v>0.276</v>
+        <v>0.348</v>
       </c>
       <c r="G81" t="n">
-        <v>0.317</v>
+        <v>0.397</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.317</v>
+        <v>0.397</v>
       </c>
       <c r="J81" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3542,36 +3542,36 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.255</v>
+        <v>0.168</v>
       </c>
       <c r="E82" t="n">
-        <v>0.357</v>
+        <v>0.304</v>
       </c>
       <c r="F82" t="n">
-        <v>0.31</v>
+        <v>0.223</v>
       </c>
       <c r="G82" t="n">
-        <v>0.357</v>
+        <v>0.304</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.357</v>
+        <v>0.302</v>
       </c>
       <c r="J82" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-tuning</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.246</v>
+        <v>0.251</v>
       </c>
       <c r="E83" t="n">
         <v>0.349</v>
       </c>
       <c r="F83" t="n">
-        <v>0.303</v>
+        <v>0.332</v>
       </c>
       <c r="G83" t="n">
         <v>0.349</v>
@@ -3598,44 +3598,918 @@
         <v>0.349</v>
       </c>
       <c r="J83" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="J85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="J86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="J87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="J90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>promptN10</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="J91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J92" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="J94" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="H95" t="n">
+        <v>100</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J95" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="J96" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H97" t="n">
+        <v>102</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J97" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J98" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J99" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>promptN12</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="J100" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>level2</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="J101" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>gpt-4o</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J102" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>claude-3-5-sonnet-20241022</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
         <v>0.276</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E103" t="n">
         <v>0.365</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F103" t="n">
         <v>0.326</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G103" t="n">
         <v>0.365</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0.365</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J103" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="J104" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="J105" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="J106" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>promptN12</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="J107" t="n">
         <v>12</v>
       </c>
     </row>

--- a/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
+++ b/results/stage1_eval_initial_DR_prompts_126instances/summary_report/level2_metrics_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,22 +540,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.245</v>
+        <v>0.352</v>
       </c>
       <c r="E3" t="n">
-        <v>0.349</v>
+        <v>0.421</v>
       </c>
       <c r="F3" t="n">
-        <v>0.328</v>
+        <v>0.415</v>
       </c>
       <c r="G3" t="n">
-        <v>0.349</v>
+        <v>0.421</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.349</v>
+        <v>0.421</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -578,22 +578,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.394</v>
+        <v>0.245</v>
       </c>
       <c r="E4" t="n">
-        <v>0.46</v>
+        <v>0.349</v>
       </c>
       <c r="F4" t="n">
-        <v>0.442</v>
+        <v>0.328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.46</v>
+        <v>0.349</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.46</v>
+        <v>0.349</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.244</v>
+        <v>0.302</v>
       </c>
       <c r="E5" t="n">
-        <v>0.349</v>
+        <v>0.368</v>
       </c>
       <c r="F5" t="n">
-        <v>0.322</v>
+        <v>0.351</v>
       </c>
       <c r="G5" t="n">
-        <v>0.349</v>
+        <v>0.368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.349</v>
+        <v>0.365</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,22 +654,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.397</v>
+        <v>0.244</v>
       </c>
       <c r="E6" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="F6" t="n">
-        <v>0.432</v>
+        <v>0.322</v>
       </c>
       <c r="G6" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.452</v>
+        <v>0.349</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.255</v>
+        <v>0.248</v>
       </c>
       <c r="E7" t="n">
-        <v>0.333</v>
+        <v>0.302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.304</v>
+        <v>0.298</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333</v>
+        <v>0.302</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.333</v>
+        <v>0.302</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -730,22 +730,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.302</v>
+        <v>0.271</v>
       </c>
       <c r="E8" t="n">
-        <v>0.368</v>
+        <v>0.349</v>
       </c>
       <c r="F8" t="n">
-        <v>0.351</v>
+        <v>0.331</v>
       </c>
       <c r="G8" t="n">
-        <v>0.368</v>
+        <v>0.349</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.365</v>
+        <v>0.349</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -768,22 +768,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.271</v>
+        <v>0.397</v>
       </c>
       <c r="E9" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.331</v>
+        <v>0.432</v>
       </c>
       <c r="G9" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.349</v>
+        <v>0.452</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -797,7 +797,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -806,22 +806,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.248</v>
+        <v>0.255</v>
       </c>
       <c r="E10" t="n">
-        <v>0.302</v>
+        <v>0.333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.298</v>
+        <v>0.304</v>
       </c>
       <c r="G10" t="n">
-        <v>0.302</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.302</v>
+        <v>0.333</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -830,12 +830,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>promptN02</t>
+          <t>promptN01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -844,25 +844,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.359</v>
+        <v>0.394</v>
       </c>
       <c r="E11" t="n">
-        <v>0.416</v>
+        <v>0.46</v>
       </c>
       <c r="F11" t="n">
-        <v>0.405</v>
+        <v>0.442</v>
       </c>
       <c r="G11" t="n">
-        <v>0.416</v>
+        <v>0.46</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.333</v>
+        <v>0.38</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4</v>
+        <v>0.452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.387</v>
+        <v>0.445</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.452</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.397</v>
+        <v>0.452</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -911,7 +911,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -920,22 +920,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.413</v>
+        <v>0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.392</v>
+        <v>0.387</v>
       </c>
       <c r="G13" t="n">
-        <v>0.413</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.413</v>
+        <v>0.397</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
@@ -949,7 +949,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -958,22 +958,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.38</v>
+        <v>0.329</v>
       </c>
       <c r="E14" t="n">
-        <v>0.452</v>
+        <v>0.413</v>
       </c>
       <c r="F14" t="n">
-        <v>0.445</v>
+        <v>0.392</v>
       </c>
       <c r="G14" t="n">
-        <v>0.452</v>
+        <v>0.413</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.452</v>
+        <v>0.413</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -996,22 +996,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.283</v>
+        <v>0.335</v>
       </c>
       <c r="E15" t="n">
-        <v>0.373</v>
+        <v>0.381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.373</v>
+        <v>0.381</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.373</v>
+        <v>0.381</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.374</v>
+        <v>0.283</v>
       </c>
       <c r="E16" t="n">
-        <v>0.444</v>
+        <v>0.373</v>
       </c>
       <c r="F16" t="n">
-        <v>0.433</v>
+        <v>0.358</v>
       </c>
       <c r="G16" t="n">
-        <v>0.444</v>
+        <v>0.373</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.444</v>
+        <v>0.373</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.341</v>
+        <v>0.289</v>
       </c>
       <c r="E17" t="n">
-        <v>0.421</v>
+        <v>0.368</v>
       </c>
       <c r="F17" t="n">
-        <v>0.398</v>
+        <v>0.353</v>
       </c>
       <c r="G17" t="n">
-        <v>0.421</v>
+        <v>0.368</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.421</v>
+        <v>0.365</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1110,22 +1110,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.335</v>
+        <v>0.341</v>
       </c>
       <c r="E18" t="n">
-        <v>0.381</v>
+        <v>0.421</v>
       </c>
       <c r="F18" t="n">
-        <v>0.36</v>
+        <v>0.398</v>
       </c>
       <c r="G18" t="n">
-        <v>0.381</v>
+        <v>0.421</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.381</v>
+        <v>0.421</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1148,22 +1148,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.267</v>
+        <v>0.374</v>
       </c>
       <c r="E19" t="n">
-        <v>0.365</v>
+        <v>0.444</v>
       </c>
       <c r="F19" t="n">
-        <v>0.359</v>
+        <v>0.433</v>
       </c>
       <c r="G19" t="n">
-        <v>0.365</v>
+        <v>0.444</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.365</v>
+        <v>0.444</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1172,12 +1172,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1186,36 +1186,36 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.387</v>
+        <v>0.267</v>
       </c>
       <c r="E20" t="n">
-        <v>0.452</v>
+        <v>0.365</v>
       </c>
       <c r="F20" t="n">
-        <v>0.443</v>
+        <v>0.359</v>
       </c>
       <c r="G20" t="n">
-        <v>0.452</v>
+        <v>0.365</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.452</v>
+        <v>0.365</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>promptN03</t>
+          <t>promptN02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1224,25 +1224,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.305</v>
+        <v>0.359</v>
       </c>
       <c r="E21" t="n">
-        <v>0.341</v>
+        <v>0.416</v>
       </c>
       <c r="F21" t="n">
-        <v>0.352</v>
+        <v>0.405</v>
       </c>
       <c r="G21" t="n">
-        <v>0.341</v>
+        <v>0.416</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.341</v>
+        <v>0.413</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1262,22 +1262,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.34</v>
+        <v>0.387</v>
       </c>
       <c r="E22" t="n">
-        <v>0.44</v>
+        <v>0.452</v>
       </c>
       <c r="F22" t="n">
-        <v>0.416</v>
+        <v>0.443</v>
       </c>
       <c r="G22" t="n">
-        <v>0.44</v>
+        <v>0.452</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.437</v>
+        <v>0.452</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.291</v>
+        <v>0.305</v>
       </c>
       <c r="E23" t="n">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="F23" t="n">
-        <v>0.374</v>
+        <v>0.352</v>
       </c>
       <c r="G23" t="n">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1338,22 +1338,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.358</v>
+        <v>0.299</v>
       </c>
       <c r="E24" t="n">
-        <v>0.448</v>
+        <v>0.397</v>
       </c>
       <c r="F24" t="n">
-        <v>0.422</v>
+        <v>0.383</v>
       </c>
       <c r="G24" t="n">
-        <v>0.448</v>
+        <v>0.397</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.444</v>
+        <v>0.397</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.371</v>
+        <v>0.291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.444</v>
+        <v>0.389</v>
       </c>
       <c r="F25" t="n">
-        <v>0.43</v>
+        <v>0.374</v>
       </c>
       <c r="G25" t="n">
-        <v>0.444</v>
+        <v>0.389</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.444</v>
+        <v>0.389</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1452,22 +1452,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.299</v>
+        <v>0.34</v>
       </c>
       <c r="E27" t="n">
-        <v>0.397</v>
+        <v>0.44</v>
       </c>
       <c r="F27" t="n">
-        <v>0.383</v>
+        <v>0.416</v>
       </c>
       <c r="G27" t="n">
-        <v>0.397</v>
+        <v>0.44</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.397</v>
+        <v>0.437</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.367</v>
+        <v>0.265</v>
       </c>
       <c r="E28" t="n">
-        <v>0.464</v>
+        <v>0.349</v>
       </c>
       <c r="F28" t="n">
-        <v>0.451</v>
+        <v>0.335</v>
       </c>
       <c r="G28" t="n">
-        <v>0.464</v>
+        <v>0.349</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.46</v>
+        <v>0.349</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -1514,12 +1514,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1528,36 +1528,36 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.305</v>
+        <v>0.371</v>
       </c>
       <c r="E29" t="n">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="F29" t="n">
-        <v>0.328</v>
+        <v>0.43</v>
       </c>
       <c r="G29" t="n">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.341</v>
+        <v>0.444</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.318</v>
+        <v>0.367</v>
       </c>
       <c r="E30" t="n">
-        <v>0.429</v>
+        <v>0.464</v>
       </c>
       <c r="F30" t="n">
-        <v>0.392</v>
+        <v>0.451</v>
       </c>
       <c r="G30" t="n">
-        <v>0.429</v>
+        <v>0.464</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.429</v>
+        <v>0.46</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>promptN04</t>
+          <t>promptN03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.346</v>
+        <v>0.358</v>
       </c>
       <c r="E31" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="F31" t="n">
-        <v>0.411</v>
+        <v>0.422</v>
       </c>
       <c r="G31" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0.444</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1642,22 +1642,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.313</v>
+        <v>0.305</v>
       </c>
       <c r="E32" t="n">
-        <v>0.421</v>
+        <v>0.429</v>
       </c>
       <c r="F32" t="n">
-        <v>0.379</v>
+        <v>0.384</v>
       </c>
       <c r="G32" t="n">
-        <v>0.421</v>
+        <v>0.429</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.421</v>
+        <v>0.429</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1680,22 +1680,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.283</v>
+        <v>0.305</v>
       </c>
       <c r="E33" t="n">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="F33" t="n">
-        <v>0.363</v>
+        <v>0.328</v>
       </c>
       <c r="G33" t="n">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1718,22 +1718,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.299</v>
+        <v>0.346</v>
       </c>
       <c r="E34" t="n">
-        <v>0.405</v>
+        <v>0.444</v>
       </c>
       <c r="F34" t="n">
-        <v>0.384</v>
+        <v>0.411</v>
       </c>
       <c r="G34" t="n">
-        <v>0.405</v>
+        <v>0.444</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.405</v>
+        <v>0.444</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1756,22 +1756,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.349</v>
+        <v>0.291</v>
       </c>
       <c r="E35" t="n">
-        <v>0.452</v>
+        <v>0.357</v>
       </c>
       <c r="F35" t="n">
-        <v>0.431</v>
+        <v>0.346</v>
       </c>
       <c r="G35" t="n">
-        <v>0.452</v>
+        <v>0.357</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.452</v>
+        <v>0.357</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -1794,22 +1794,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.326</v>
+        <v>0.349</v>
       </c>
       <c r="E36" t="n">
-        <v>0.413</v>
+        <v>0.452</v>
       </c>
       <c r="F36" t="n">
-        <v>0.403</v>
+        <v>0.431</v>
       </c>
       <c r="G36" t="n">
-        <v>0.413</v>
+        <v>0.452</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.413</v>
+        <v>0.452</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1832,22 +1832,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.305</v>
+        <v>0.326</v>
       </c>
       <c r="E37" t="n">
-        <v>0.429</v>
+        <v>0.413</v>
       </c>
       <c r="F37" t="n">
-        <v>0.384</v>
+        <v>0.403</v>
       </c>
       <c r="G37" t="n">
-        <v>0.429</v>
+        <v>0.413</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.429</v>
+        <v>0.413</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -1856,12 +1856,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1870,36 +1870,36 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.399</v>
+        <v>0.299</v>
       </c>
       <c r="E38" t="n">
-        <v>0.488</v>
+        <v>0.405</v>
       </c>
       <c r="F38" t="n">
-        <v>0.468</v>
+        <v>0.384</v>
       </c>
       <c r="G38" t="n">
-        <v>0.488</v>
+        <v>0.405</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.476</v>
+        <v>0.405</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1908,36 +1908,36 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.358</v>
+        <v>0.283</v>
       </c>
       <c r="E39" t="n">
-        <v>0.429</v>
+        <v>0.389</v>
       </c>
       <c r="F39" t="n">
-        <v>0.403</v>
+        <v>0.363</v>
       </c>
       <c r="G39" t="n">
-        <v>0.429</v>
+        <v>0.389</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.429</v>
+        <v>0.389</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1946,36 +1946,36 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.398</v>
+        <v>0.318</v>
       </c>
       <c r="E40" t="n">
-        <v>0.492</v>
+        <v>0.429</v>
       </c>
       <c r="F40" t="n">
-        <v>0.465</v>
+        <v>0.392</v>
       </c>
       <c r="G40" t="n">
-        <v>0.492</v>
+        <v>0.429</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.484</v>
+        <v>0.429</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>promptN05</t>
+          <t>promptN04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1984,25 +1984,25 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.333</v>
+        <v>0.313</v>
       </c>
       <c r="E41" t="n">
-        <v>0.413</v>
+        <v>0.421</v>
       </c>
       <c r="F41" t="n">
-        <v>0.374</v>
+        <v>0.379</v>
       </c>
       <c r="G41" t="n">
-        <v>0.413</v>
+        <v>0.421</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.413</v>
+        <v>0.421</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2022,22 +2022,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.273</v>
+        <v>0.333</v>
       </c>
       <c r="E42" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="F42" t="n">
-        <v>0.353</v>
+        <v>0.374</v>
       </c>
       <c r="G42" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.357</v>
+        <v>0.413</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2060,22 +2060,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.283</v>
+        <v>0.358</v>
       </c>
       <c r="E43" t="n">
-        <v>0.341</v>
+        <v>0.421</v>
       </c>
       <c r="F43" t="n">
-        <v>0.323</v>
+        <v>0.405</v>
       </c>
       <c r="G43" t="n">
-        <v>0.341</v>
+        <v>0.421</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.341</v>
+        <v>0.421</v>
       </c>
       <c r="J43" t="n">
         <v>5</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2098,22 +2098,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.292</v>
+        <v>0.309</v>
       </c>
       <c r="E44" t="n">
-        <v>0.373</v>
+        <v>0.357</v>
       </c>
       <c r="F44" t="n">
-        <v>0.353</v>
+        <v>0.344</v>
       </c>
       <c r="G44" t="n">
-        <v>0.373</v>
+        <v>0.357</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.373</v>
+        <v>0.357</v>
       </c>
       <c r="J44" t="n">
         <v>5</v>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2136,22 +2136,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.358</v>
+        <v>0.273</v>
       </c>
       <c r="E45" t="n">
-        <v>0.421</v>
+        <v>0.357</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405</v>
+        <v>0.353</v>
       </c>
       <c r="G45" t="n">
-        <v>0.421</v>
+        <v>0.357</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.421</v>
+        <v>0.357</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2174,22 +2174,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.372</v>
+        <v>0.292</v>
       </c>
       <c r="E46" t="n">
-        <v>0.437</v>
+        <v>0.373</v>
       </c>
       <c r="F46" t="n">
-        <v>0.419</v>
+        <v>0.353</v>
       </c>
       <c r="G46" t="n">
-        <v>0.437</v>
+        <v>0.373</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.437</v>
+        <v>0.373</v>
       </c>
       <c r="J46" t="n">
         <v>5</v>
@@ -2198,12 +2198,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2212,36 +2212,36 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.255</v>
+        <v>0.399</v>
       </c>
       <c r="E47" t="n">
-        <v>0.357</v>
+        <v>0.488</v>
       </c>
       <c r="F47" t="n">
-        <v>0.322</v>
+        <v>0.468</v>
       </c>
       <c r="G47" t="n">
-        <v>0.357</v>
+        <v>0.488</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>0.357</v>
+        <v>0.476</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2250,36 +2250,36 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.328</v>
+        <v>0.372</v>
       </c>
       <c r="E48" t="n">
-        <v>0.452</v>
+        <v>0.437</v>
       </c>
       <c r="F48" t="n">
-        <v>0.401</v>
+        <v>0.419</v>
       </c>
       <c r="G48" t="n">
-        <v>0.452</v>
+        <v>0.437</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.444</v>
+        <v>0.437</v>
       </c>
       <c r="J48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2288,36 +2288,36 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.28</v>
+        <v>0.398</v>
       </c>
       <c r="E49" t="n">
-        <v>0.389</v>
+        <v>0.492</v>
       </c>
       <c r="F49" t="n">
-        <v>0.351</v>
+        <v>0.465</v>
       </c>
       <c r="G49" t="n">
-        <v>0.389</v>
+        <v>0.492</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0.389</v>
+        <v>0.484</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2326,36 +2326,36 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.333</v>
+        <v>0.283</v>
       </c>
       <c r="E50" t="n">
-        <v>0.448</v>
+        <v>0.341</v>
       </c>
       <c r="F50" t="n">
-        <v>0.403</v>
+        <v>0.323</v>
       </c>
       <c r="G50" t="n">
-        <v>0.448</v>
+        <v>0.341</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.444</v>
+        <v>0.341</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>promptN06</t>
+          <t>promptN05</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2364,25 +2364,25 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.204</v>
+        <v>0.358</v>
       </c>
       <c r="E51" t="n">
-        <v>0.294</v>
+        <v>0.429</v>
       </c>
       <c r="F51" t="n">
-        <v>0.261</v>
+        <v>0.403</v>
       </c>
       <c r="G51" t="n">
-        <v>0.294</v>
+        <v>0.429</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.294</v>
+        <v>0.429</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2402,22 +2402,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.264</v>
+        <v>0.204</v>
       </c>
       <c r="E52" t="n">
-        <v>0.373</v>
+        <v>0.294</v>
       </c>
       <c r="F52" t="n">
-        <v>0.332</v>
+        <v>0.261</v>
       </c>
       <c r="G52" t="n">
-        <v>0.373</v>
+        <v>0.294</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.373</v>
+        <v>0.294</v>
       </c>
       <c r="J52" t="n">
         <v>6</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.319</v>
+        <v>0.333</v>
       </c>
       <c r="E53" t="n">
-        <v>0.468</v>
+        <v>0.448</v>
       </c>
       <c r="F53" t="n">
-        <v>0.402</v>
+        <v>0.403</v>
       </c>
       <c r="G53" t="n">
-        <v>0.468</v>
+        <v>0.448</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.468</v>
+        <v>0.444</v>
       </c>
       <c r="J53" t="n">
         <v>6</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2478,22 +2478,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.312</v>
+        <v>0.328</v>
       </c>
       <c r="E54" t="n">
-        <v>0.413</v>
+        <v>0.452</v>
       </c>
       <c r="F54" t="n">
-        <v>0.402</v>
+        <v>0.401</v>
       </c>
       <c r="G54" t="n">
-        <v>0.413</v>
+        <v>0.452</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0.413</v>
+        <v>0.444</v>
       </c>
       <c r="J54" t="n">
         <v>6</v>
@@ -2516,22 +2516,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.356</v>
+        <v>0.319</v>
       </c>
       <c r="E55" t="n">
-        <v>0.488</v>
+        <v>0.468</v>
       </c>
       <c r="F55" t="n">
-        <v>0.423</v>
+        <v>0.402</v>
       </c>
       <c r="G55" t="n">
-        <v>0.488</v>
+        <v>0.468</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.484</v>
+        <v>0.468</v>
       </c>
       <c r="J55" t="n">
         <v>6</v>
@@ -2540,7 +2540,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2554,31 +2554,31 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.179</v>
+        <v>0.255</v>
       </c>
       <c r="E56" t="n">
-        <v>0.312</v>
+        <v>0.357</v>
       </c>
       <c r="F56" t="n">
-        <v>0.261</v>
+        <v>0.322</v>
       </c>
       <c r="G56" t="n">
-        <v>0.312</v>
+        <v>0.357</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.31</v>
+        <v>0.357</v>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2592,36 +2592,36 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.281</v>
+        <v>0.28</v>
       </c>
       <c r="E57" t="n">
-        <v>0.381</v>
+        <v>0.389</v>
       </c>
       <c r="F57" t="n">
-        <v>0.347</v>
+        <v>0.351</v>
       </c>
       <c r="G57" t="n">
-        <v>0.381</v>
+        <v>0.389</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.381</v>
+        <v>0.389</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2630,36 +2630,36 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.302</v>
+        <v>0.264</v>
       </c>
       <c r="E58" t="n">
-        <v>0.431</v>
+        <v>0.373</v>
       </c>
       <c r="F58" t="n">
-        <v>0.381</v>
+        <v>0.332</v>
       </c>
       <c r="G58" t="n">
-        <v>0.431</v>
+        <v>0.373</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.421</v>
+        <v>0.373</v>
       </c>
       <c r="J58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2668,36 +2668,36 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.314</v>
+        <v>0.302</v>
       </c>
       <c r="E59" t="n">
-        <v>0.373</v>
+        <v>0.392</v>
       </c>
       <c r="F59" t="n">
-        <v>0.362</v>
+        <v>0.37</v>
       </c>
       <c r="G59" t="n">
-        <v>0.373</v>
+        <v>0.392</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.373</v>
+        <v>0.389</v>
       </c>
       <c r="J59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2706,36 +2706,36 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.319</v>
+        <v>0.356</v>
       </c>
       <c r="E60" t="n">
-        <v>0.427</v>
+        <v>0.488</v>
       </c>
       <c r="F60" t="n">
-        <v>0.382</v>
+        <v>0.423</v>
       </c>
       <c r="G60" t="n">
-        <v>0.427</v>
+        <v>0.488</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.421</v>
+        <v>0.484</v>
       </c>
       <c r="J60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>promptN07</t>
+          <t>promptN06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2744,25 +2744,25 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.211</v>
+        <v>0.312</v>
       </c>
       <c r="E61" t="n">
-        <v>0.328</v>
+        <v>0.413</v>
       </c>
       <c r="F61" t="n">
-        <v>0.278</v>
+        <v>0.402</v>
       </c>
       <c r="G61" t="n">
-        <v>0.328</v>
+        <v>0.413</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.325</v>
+        <v>0.413</v>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2782,22 +2782,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.293</v>
+        <v>0.314</v>
       </c>
       <c r="E62" t="n">
-        <v>0.413</v>
+        <v>0.373</v>
       </c>
       <c r="F62" t="n">
-        <v>0.368</v>
+        <v>0.362</v>
       </c>
       <c r="G62" t="n">
-        <v>0.413</v>
+        <v>0.373</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.413</v>
+        <v>0.373</v>
       </c>
       <c r="J62" t="n">
         <v>7</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2820,22 +2820,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.343</v>
+        <v>0.319</v>
       </c>
       <c r="E63" t="n">
-        <v>0.468</v>
+        <v>0.427</v>
       </c>
       <c r="F63" t="n">
-        <v>0.41</v>
+        <v>0.382</v>
       </c>
       <c r="G63" t="n">
-        <v>0.468</v>
+        <v>0.427</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0.468</v>
+        <v>0.421</v>
       </c>
       <c r="J63" t="n">
         <v>7</v>
@@ -2858,22 +2858,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.353</v>
+        <v>0.343</v>
       </c>
       <c r="E64" t="n">
-        <v>0.48</v>
+        <v>0.468</v>
       </c>
       <c r="F64" t="n">
-        <v>0.421</v>
+        <v>0.41</v>
       </c>
       <c r="G64" t="n">
-        <v>0.48</v>
+        <v>0.468</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.476</v>
+        <v>0.468</v>
       </c>
       <c r="J64" t="n">
         <v>7</v>
@@ -2882,12 +2882,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2896,36 +2896,36 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="E65" t="n">
-        <v>0.471</v>
+        <v>0.48</v>
       </c>
       <c r="F65" t="n">
-        <v>0.425</v>
+        <v>0.421</v>
       </c>
       <c r="G65" t="n">
-        <v>0.471</v>
+        <v>0.48</v>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.452</v>
+        <v>0.476</v>
       </c>
       <c r="J65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2934,36 +2934,36 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.301</v>
+        <v>0.179</v>
       </c>
       <c r="E66" t="n">
-        <v>0.416</v>
+        <v>0.312</v>
       </c>
       <c r="F66" t="n">
-        <v>0.356</v>
+        <v>0.261</v>
       </c>
       <c r="G66" t="n">
-        <v>0.416</v>
+        <v>0.312</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.413</v>
+        <v>0.31</v>
       </c>
       <c r="J66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2972,36 +2972,36 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.28</v>
+        <v>0.211</v>
       </c>
       <c r="E67" t="n">
-        <v>0.389</v>
+        <v>0.328</v>
       </c>
       <c r="F67" t="n">
-        <v>0.347</v>
+        <v>0.278</v>
       </c>
       <c r="G67" t="n">
-        <v>0.389</v>
+        <v>0.328</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.389</v>
+        <v>0.325</v>
       </c>
       <c r="J67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3010,36 +3010,36 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.149</v>
+        <v>0.31</v>
       </c>
       <c r="E68" t="n">
-        <v>0.302</v>
+        <v>0.357</v>
       </c>
       <c r="F68" t="n">
-        <v>0.226</v>
+        <v>0.345</v>
       </c>
       <c r="G68" t="n">
-        <v>0.302</v>
+        <v>0.357</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.302</v>
+        <v>0.357</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3048,36 +3048,36 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.164</v>
+        <v>0.293</v>
       </c>
       <c r="E69" t="n">
-        <v>0.264</v>
+        <v>0.413</v>
       </c>
       <c r="F69" t="n">
-        <v>0.214</v>
+        <v>0.368</v>
       </c>
       <c r="G69" t="n">
-        <v>0.264</v>
+        <v>0.413</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.262</v>
+        <v>0.413</v>
       </c>
       <c r="J69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3086,36 +3086,36 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.282</v>
+        <v>0.302</v>
       </c>
       <c r="E70" t="n">
-        <v>0.389</v>
+        <v>0.431</v>
       </c>
       <c r="F70" t="n">
-        <v>0.348</v>
+        <v>0.381</v>
       </c>
       <c r="G70" t="n">
-        <v>0.389</v>
+        <v>0.431</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>0.389</v>
+        <v>0.421</v>
       </c>
       <c r="J70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>promptN08</t>
+          <t>promptN07</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3124,25 +3124,25 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.369</v>
+        <v>0.281</v>
       </c>
       <c r="E71" t="n">
-        <v>0.463</v>
+        <v>0.381</v>
       </c>
       <c r="F71" t="n">
-        <v>0.431</v>
+        <v>0.347</v>
       </c>
       <c r="G71" t="n">
-        <v>0.463</v>
+        <v>0.381</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.452</v>
+        <v>0.381</v>
       </c>
       <c r="J71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3162,22 +3162,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.312</v>
+        <v>0.282</v>
       </c>
       <c r="E72" t="n">
-        <v>0.44</v>
+        <v>0.389</v>
       </c>
       <c r="F72" t="n">
-        <v>0.37</v>
+        <v>0.348</v>
       </c>
       <c r="G72" t="n">
-        <v>0.44</v>
+        <v>0.389</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.437</v>
+        <v>0.389</v>
       </c>
       <c r="J72" t="n">
         <v>8</v>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3200,22 +3200,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.307</v>
+        <v>0.301</v>
       </c>
       <c r="E73" t="n">
-        <v>0.381</v>
+        <v>0.416</v>
       </c>
       <c r="F73" t="n">
-        <v>0.371</v>
+        <v>0.356</v>
       </c>
       <c r="G73" t="n">
-        <v>0.381</v>
+        <v>0.416</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.381</v>
+        <v>0.413</v>
       </c>
       <c r="J73" t="n">
         <v>8</v>
@@ -3224,12 +3224,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3238,36 +3238,36 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.289</v>
+        <v>0.28</v>
       </c>
       <c r="E74" t="n">
-        <v>0.427</v>
+        <v>0.389</v>
       </c>
       <c r="F74" t="n">
-        <v>0.36</v>
+        <v>0.347</v>
       </c>
       <c r="G74" t="n">
-        <v>0.427</v>
+        <v>0.389</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.421</v>
+        <v>0.389</v>
       </c>
       <c r="J74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3276,36 +3276,36 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.266</v>
+        <v>0.307</v>
       </c>
       <c r="E75" t="n">
-        <v>0.413</v>
+        <v>0.381</v>
       </c>
       <c r="F75" t="n">
-        <v>0.352</v>
+        <v>0.371</v>
       </c>
       <c r="G75" t="n">
-        <v>0.413</v>
+        <v>0.381</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.413</v>
+        <v>0.381</v>
       </c>
       <c r="J75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3314,31 +3314,31 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.339</v>
+        <v>0.312</v>
       </c>
       <c r="E76" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F76" t="n">
-        <v>0.403</v>
+        <v>0.37</v>
       </c>
       <c r="G76" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.429</v>
+        <v>0.437</v>
       </c>
       <c r="J76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3352,36 +3352,36 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.361</v>
+        <v>0.369</v>
       </c>
       <c r="E77" t="n">
-        <v>0.455</v>
+        <v>0.463</v>
       </c>
       <c r="F77" t="n">
-        <v>0.415</v>
+        <v>0.431</v>
       </c>
       <c r="G77" t="n">
-        <v>0.455</v>
+        <v>0.463</v>
       </c>
       <c r="H77" t="n">
         <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>0.444</v>
+        <v>0.452</v>
       </c>
       <c r="J77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3390,31 +3390,31 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.284</v>
+        <v>0.346</v>
       </c>
       <c r="E78" t="n">
-        <v>0.415</v>
+        <v>0.471</v>
       </c>
       <c r="F78" t="n">
-        <v>0.355</v>
+        <v>0.425</v>
       </c>
       <c r="G78" t="n">
-        <v>0.415</v>
+        <v>0.471</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>0.405</v>
+        <v>0.452</v>
       </c>
       <c r="J78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3428,36 +3428,36 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.169</v>
+        <v>0.149</v>
       </c>
       <c r="E79" t="n">
-        <v>0.31</v>
+        <v>0.302</v>
       </c>
       <c r="F79" t="n">
-        <v>0.237</v>
+        <v>0.226</v>
       </c>
       <c r="G79" t="n">
-        <v>0.31</v>
+        <v>0.302</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.31</v>
+        <v>0.302</v>
       </c>
       <c r="J79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3466,36 +3466,36 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.319</v>
+        <v>0.253</v>
       </c>
       <c r="E80" t="n">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="F80" t="n">
-        <v>0.376</v>
+        <v>0.308</v>
       </c>
       <c r="G80" t="n">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.389</v>
+        <v>0.341</v>
       </c>
       <c r="J80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>promptN09</t>
+          <t>promptN08</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3504,25 +3504,25 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.263</v>
+        <v>0.164</v>
       </c>
       <c r="E81" t="n">
-        <v>0.397</v>
+        <v>0.264</v>
       </c>
       <c r="F81" t="n">
-        <v>0.348</v>
+        <v>0.214</v>
       </c>
       <c r="G81" t="n">
-        <v>0.397</v>
+        <v>0.264</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.397</v>
+        <v>0.262</v>
       </c>
       <c r="J81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3542,22 +3542,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.168</v>
+        <v>0.339</v>
       </c>
       <c r="E82" t="n">
-        <v>0.304</v>
+        <v>0.45</v>
       </c>
       <c r="F82" t="n">
-        <v>0.223</v>
+        <v>0.403</v>
       </c>
       <c r="G82" t="n">
-        <v>0.304</v>
+        <v>0.45</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I82" t="n">
-        <v>0.302</v>
+        <v>0.429</v>
       </c>
       <c r="J82" t="n">
         <v>9</v>
@@ -3566,12 +3566,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>gemini-1.5-flash-001-tuning</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3580,31 +3580,31 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.251</v>
+        <v>0.289</v>
       </c>
       <c r="E83" t="n">
-        <v>0.349</v>
+        <v>0.427</v>
       </c>
       <c r="F83" t="n">
-        <v>0.332</v>
+        <v>0.36</v>
       </c>
       <c r="G83" t="n">
-        <v>0.349</v>
+        <v>0.427</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0.349</v>
+        <v>0.421</v>
       </c>
       <c r="J83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3618,31 +3618,31 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.269</v>
+        <v>0.266</v>
       </c>
       <c r="E84" t="n">
-        <v>0.381</v>
+        <v>0.413</v>
       </c>
       <c r="F84" t="n">
-        <v>0.34</v>
+        <v>0.352</v>
       </c>
       <c r="G84" t="n">
-        <v>0.381</v>
+        <v>0.413</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.381</v>
+        <v>0.413</v>
       </c>
       <c r="J84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3656,31 +3656,31 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.33</v>
+        <v>0.361</v>
       </c>
       <c r="E85" t="n">
-        <v>0.434</v>
+        <v>0.455</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4</v>
+        <v>0.415</v>
       </c>
       <c r="G85" t="n">
-        <v>0.434</v>
+        <v>0.455</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="J85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3694,36 +3694,36 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.128</v>
+        <v>0.169</v>
       </c>
       <c r="E86" t="n">
-        <v>0.248</v>
+        <v>0.31</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2</v>
+        <v>0.237</v>
       </c>
       <c r="G86" t="n">
-        <v>0.248</v>
+        <v>0.31</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.246</v>
+        <v>0.31</v>
       </c>
       <c r="J86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3732,36 +3732,36 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.269</v>
+        <v>0.284</v>
       </c>
       <c r="E87" t="n">
-        <v>0.373</v>
+        <v>0.415</v>
       </c>
       <c r="F87" t="n">
-        <v>0.332</v>
+        <v>0.355</v>
       </c>
       <c r="G87" t="n">
-        <v>0.373</v>
+        <v>0.415</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>0.373</v>
+        <v>0.405</v>
       </c>
       <c r="J87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3770,36 +3770,36 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.269</v>
+        <v>0.319</v>
       </c>
       <c r="E88" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="F88" t="n">
-        <v>0.319</v>
+        <v>0.376</v>
       </c>
       <c r="G88" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.381</v>
+        <v>0.389</v>
       </c>
       <c r="J88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3808,36 +3808,36 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.315</v>
+        <v>0.329</v>
       </c>
       <c r="E89" t="n">
-        <v>0.433</v>
+        <v>0.381</v>
       </c>
       <c r="F89" t="n">
-        <v>0.39</v>
+        <v>0.379</v>
       </c>
       <c r="G89" t="n">
-        <v>0.433</v>
+        <v>0.381</v>
       </c>
       <c r="H89" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.413</v>
+        <v>0.381</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3846,36 +3846,36 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.299</v>
+        <v>0.168</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4</v>
+        <v>0.304</v>
       </c>
       <c r="F90" t="n">
-        <v>0.339</v>
+        <v>0.223</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>0.304</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0.397</v>
+        <v>0.302</v>
       </c>
       <c r="J90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>promptN10</t>
+          <t>promptN09</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3884,31 +3884,31 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.132</v>
+        <v>0.263</v>
       </c>
       <c r="E91" t="n">
-        <v>0.254</v>
+        <v>0.397</v>
       </c>
       <c r="F91" t="n">
-        <v>0.202</v>
+        <v>0.348</v>
       </c>
       <c r="G91" t="n">
-        <v>0.254</v>
+        <v>0.397</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.254</v>
+        <v>0.397</v>
       </c>
       <c r="J91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3922,36 +3922,36 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.256</v>
+        <v>0.269</v>
       </c>
       <c r="E92" t="n">
-        <v>0.365</v>
+        <v>0.381</v>
       </c>
       <c r="F92" t="n">
-        <v>0.324</v>
+        <v>0.34</v>
       </c>
       <c r="G92" t="n">
-        <v>0.365</v>
+        <v>0.381</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.365</v>
+        <v>0.381</v>
       </c>
       <c r="J92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3960,36 +3960,36 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.252</v>
+        <v>0.315</v>
       </c>
       <c r="E93" t="n">
-        <v>0.365</v>
+        <v>0.433</v>
       </c>
       <c r="F93" t="n">
-        <v>0.318</v>
+        <v>0.39</v>
       </c>
       <c r="G93" t="n">
-        <v>0.365</v>
+        <v>0.433</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>0.365</v>
+        <v>0.413</v>
       </c>
       <c r="J93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3998,31 +3998,31 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.241</v>
+        <v>0.269</v>
       </c>
       <c r="E94" t="n">
-        <v>0.357</v>
+        <v>0.373</v>
       </c>
       <c r="F94" t="n">
-        <v>0.316</v>
+        <v>0.332</v>
       </c>
       <c r="G94" t="n">
-        <v>0.357</v>
+        <v>0.373</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.357</v>
+        <v>0.373</v>
       </c>
       <c r="J94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4036,36 +4036,36 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.105</v>
+        <v>0.128</v>
       </c>
       <c r="E95" t="n">
-        <v>0.231</v>
+        <v>0.248</v>
       </c>
       <c r="F95" t="n">
-        <v>0.163</v>
+        <v>0.2</v>
       </c>
       <c r="G95" t="n">
-        <v>0.231</v>
+        <v>0.248</v>
       </c>
       <c r="H95" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0.048</v>
+        <v>0.246</v>
       </c>
       <c r="J95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4074,36 +4074,36 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.26</v>
+        <v>0.132</v>
       </c>
       <c r="E96" t="n">
-        <v>0.349</v>
+        <v>0.254</v>
       </c>
       <c r="F96" t="n">
-        <v>0.296</v>
+        <v>0.202</v>
       </c>
       <c r="G96" t="n">
-        <v>0.349</v>
+        <v>0.254</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.349</v>
+        <v>0.254</v>
       </c>
       <c r="J96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4112,36 +4112,36 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="E97" t="n">
-        <v>0.25</v>
+        <v>0.434</v>
       </c>
       <c r="F97" t="n">
-        <v>0.169</v>
+        <v>0.4</v>
       </c>
       <c r="G97" t="n">
-        <v>0.25</v>
+        <v>0.434</v>
       </c>
       <c r="H97" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>0.048</v>
+        <v>0.421</v>
       </c>
       <c r="J97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4150,36 +4150,36 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.277</v>
+        <v>0.299</v>
       </c>
       <c r="E98" t="n">
-        <v>0.365</v>
+        <v>0.4</v>
       </c>
       <c r="F98" t="n">
-        <v>0.321</v>
+        <v>0.339</v>
       </c>
       <c r="G98" t="n">
-        <v>0.365</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0.365</v>
+        <v>0.397</v>
       </c>
       <c r="J98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>promptN11</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4188,36 +4188,36 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.284</v>
+        <v>0.251</v>
       </c>
       <c r="E99" t="n">
-        <v>0.365</v>
+        <v>0.349</v>
       </c>
       <c r="F99" t="n">
-        <v>0.315</v>
+        <v>0.332</v>
       </c>
       <c r="G99" t="n">
-        <v>0.365</v>
+        <v>0.349</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.365</v>
+        <v>0.349</v>
       </c>
       <c r="J99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>gemini-1.5-flash-001-finetuned</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4226,36 +4226,36 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.22</v>
+        <v>0.264</v>
       </c>
       <c r="E100" t="n">
-        <v>0.317</v>
+        <v>0.349</v>
       </c>
       <c r="F100" t="n">
-        <v>0.276</v>
+        <v>0.327</v>
       </c>
       <c r="G100" t="n">
-        <v>0.317</v>
+        <v>0.349</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.317</v>
+        <v>0.349</v>
       </c>
       <c r="J100" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN10</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20241022</t>
+          <t>gemini-1.5-pro</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4264,36 +4264,36 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.281</v>
+        <v>0.269</v>
       </c>
       <c r="E101" t="n">
-        <v>0.357</v>
+        <v>0.39</v>
       </c>
       <c r="F101" t="n">
-        <v>0.327</v>
+        <v>0.319</v>
       </c>
       <c r="G101" t="n">
-        <v>0.357</v>
+        <v>0.39</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>0.357</v>
+        <v>0.381</v>
       </c>
       <c r="J101" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>gpt-4o</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4302,31 +4302,31 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.241</v>
+        <v>0.281</v>
       </c>
       <c r="E102" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="F102" t="n">
-        <v>0.297</v>
+        <v>0.327</v>
       </c>
       <c r="G102" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="J102" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4358,13 +4358,13 @@
         <v>0.365</v>
       </c>
       <c r="J103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4396,18 +4396,18 @@
         <v>0.357</v>
       </c>
       <c r="J104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>gemini-1.5-pro</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4416,36 +4416,36 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.246</v>
+        <v>0.22</v>
       </c>
       <c r="E105" t="n">
-        <v>0.349</v>
+        <v>0.317</v>
       </c>
       <c r="F105" t="n">
-        <v>0.303</v>
+        <v>0.276</v>
       </c>
       <c r="G105" t="n">
-        <v>0.349</v>
+        <v>0.317</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.349</v>
+        <v>0.317</v>
       </c>
       <c r="J105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gpt-4o</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4454,63 +4454,139 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.293</v>
+        <v>0.241</v>
       </c>
       <c r="E106" t="n">
-        <v>0.413</v>
+        <v>0.333</v>
       </c>
       <c r="F106" t="n">
-        <v>0.361</v>
+        <v>0.297</v>
       </c>
       <c r="G106" t="n">
-        <v>0.413</v>
+        <v>0.333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.413</v>
+        <v>0.333</v>
       </c>
       <c r="J106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>promptN12</t>
+          <t>promptN11</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>gemini-1.5-pro</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>level2</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="J108" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>promptN11</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>level2</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
         <v>0.26</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E109" t="n">
         <v>0.381</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F109" t="n">
         <v>0.331</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G109" t="n">
         <v>0.381</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0.381</v>
       </c>
-      <c r="J107" t="n">
-        <v>12</v>
+      <c r="J109" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
